--- a/summary_wide.xlsx
+++ b/summary_wide.xlsx
@@ -1,21 +1,1547 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11018"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/karolinawiesiolek/Desktop/Data_Science/QCData112525/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E555C486-7823-A140-A023-41CD9873126A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="10800" yWindow="740" windowWidth="16100" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="505" uniqueCount="505">
+  <si>
+    <t>test_id</t>
+  </si>
+  <si>
+    <t>FAIL</t>
+  </si>
+  <si>
+    <t>SUCCESS</t>
+  </si>
+  <si>
+    <t>test_1000</t>
+  </si>
+  <si>
+    <t>test_1001</t>
+  </si>
+  <si>
+    <t>test_1002</t>
+  </si>
+  <si>
+    <t>test_1003</t>
+  </si>
+  <si>
+    <t>test_1004</t>
+  </si>
+  <si>
+    <t>test_1005</t>
+  </si>
+  <si>
+    <t>test_1006</t>
+  </si>
+  <si>
+    <t>test_1007</t>
+  </si>
+  <si>
+    <t>test_1008</t>
+  </si>
+  <si>
+    <t>test_1009</t>
+  </si>
+  <si>
+    <t>test_1010</t>
+  </si>
+  <si>
+    <t>test_1011</t>
+  </si>
+  <si>
+    <t>test_1012</t>
+  </si>
+  <si>
+    <t>test_1013</t>
+  </si>
+  <si>
+    <t>test_1014</t>
+  </si>
+  <si>
+    <t>test_1015</t>
+  </si>
+  <si>
+    <t>test_1016</t>
+  </si>
+  <si>
+    <t>test_1017</t>
+  </si>
+  <si>
+    <t>test_1018</t>
+  </si>
+  <si>
+    <t>test_1019</t>
+  </si>
+  <si>
+    <t>test_1020</t>
+  </si>
+  <si>
+    <t>test_1021</t>
+  </si>
+  <si>
+    <t>test_1022</t>
+  </si>
+  <si>
+    <t>test_1023</t>
+  </si>
+  <si>
+    <t>test_1024</t>
+  </si>
+  <si>
+    <t>test_1025</t>
+  </si>
+  <si>
+    <t>test_1026</t>
+  </si>
+  <si>
+    <t>test_1027</t>
+  </si>
+  <si>
+    <t>test_1028</t>
+  </si>
+  <si>
+    <t>test_1029</t>
+  </si>
+  <si>
+    <t>test_1030</t>
+  </si>
+  <si>
+    <t>test_1031</t>
+  </si>
+  <si>
+    <t>test_1032</t>
+  </si>
+  <si>
+    <t>test_1033</t>
+  </si>
+  <si>
+    <t>test_1034</t>
+  </si>
+  <si>
+    <t>test_1035</t>
+  </si>
+  <si>
+    <t>test_1036</t>
+  </si>
+  <si>
+    <t>test_1037</t>
+  </si>
+  <si>
+    <t>test_1038</t>
+  </si>
+  <si>
+    <t>test_1039</t>
+  </si>
+  <si>
+    <t>test_1040</t>
+  </si>
+  <si>
+    <t>test_1041</t>
+  </si>
+  <si>
+    <t>test_1042</t>
+  </si>
+  <si>
+    <t>test_1043</t>
+  </si>
+  <si>
+    <t>test_1044</t>
+  </si>
+  <si>
+    <t>test_1045</t>
+  </si>
+  <si>
+    <t>test_1046</t>
+  </si>
+  <si>
+    <t>test_1047</t>
+  </si>
+  <si>
+    <t>test_1048</t>
+  </si>
+  <si>
+    <t>test_1049</t>
+  </si>
+  <si>
+    <t>test_1050</t>
+  </si>
+  <si>
+    <t>test_1051</t>
+  </si>
+  <si>
+    <t>test_1052</t>
+  </si>
+  <si>
+    <t>test_1053</t>
+  </si>
+  <si>
+    <t>test_1054</t>
+  </si>
+  <si>
+    <t>test_1055</t>
+  </si>
+  <si>
+    <t>test_1056</t>
+  </si>
+  <si>
+    <t>test_1057</t>
+  </si>
+  <si>
+    <t>test_1058</t>
+  </si>
+  <si>
+    <t>test_1059</t>
+  </si>
+  <si>
+    <t>test_1060</t>
+  </si>
+  <si>
+    <t>test_1061</t>
+  </si>
+  <si>
+    <t>test_1062</t>
+  </si>
+  <si>
+    <t>test_1063</t>
+  </si>
+  <si>
+    <t>test_1064</t>
+  </si>
+  <si>
+    <t>test_1065</t>
+  </si>
+  <si>
+    <t>test_1066</t>
+  </si>
+  <si>
+    <t>test_1067</t>
+  </si>
+  <si>
+    <t>test_1068</t>
+  </si>
+  <si>
+    <t>test_1069</t>
+  </si>
+  <si>
+    <t>test_1070</t>
+  </si>
+  <si>
+    <t>test_1071</t>
+  </si>
+  <si>
+    <t>test_1072</t>
+  </si>
+  <si>
+    <t>test_1073</t>
+  </si>
+  <si>
+    <t>test_1074</t>
+  </si>
+  <si>
+    <t>test_1075</t>
+  </si>
+  <si>
+    <t>test_1076</t>
+  </si>
+  <si>
+    <t>test_1077</t>
+  </si>
+  <si>
+    <t>test_1078</t>
+  </si>
+  <si>
+    <t>test_1079</t>
+  </si>
+  <si>
+    <t>test_1080</t>
+  </si>
+  <si>
+    <t>test_1081</t>
+  </si>
+  <si>
+    <t>test_1082</t>
+  </si>
+  <si>
+    <t>test_1083</t>
+  </si>
+  <si>
+    <t>test_1084</t>
+  </si>
+  <si>
+    <t>test_1085</t>
+  </si>
+  <si>
+    <t>test_1086</t>
+  </si>
+  <si>
+    <t>test_1087</t>
+  </si>
+  <si>
+    <t>test_1088</t>
+  </si>
+  <si>
+    <t>test_1089</t>
+  </si>
+  <si>
+    <t>test_1090</t>
+  </si>
+  <si>
+    <t>test_1091</t>
+  </si>
+  <si>
+    <t>test_1092</t>
+  </si>
+  <si>
+    <t>test_1093</t>
+  </si>
+  <si>
+    <t>test_1094</t>
+  </si>
+  <si>
+    <t>test_1095</t>
+  </si>
+  <si>
+    <t>test_1096</t>
+  </si>
+  <si>
+    <t>test_1097</t>
+  </si>
+  <si>
+    <t>test_1098</t>
+  </si>
+  <si>
+    <t>test_1099</t>
+  </si>
+  <si>
+    <t>test_1100</t>
+  </si>
+  <si>
+    <t>test_1101</t>
+  </si>
+  <si>
+    <t>test_1102</t>
+  </si>
+  <si>
+    <t>test_1103</t>
+  </si>
+  <si>
+    <t>test_1104</t>
+  </si>
+  <si>
+    <t>test_1105</t>
+  </si>
+  <si>
+    <t>test_1106</t>
+  </si>
+  <si>
+    <t>test_1107</t>
+  </si>
+  <si>
+    <t>test_1108</t>
+  </si>
+  <si>
+    <t>test_1109</t>
+  </si>
+  <si>
+    <t>test_1110</t>
+  </si>
+  <si>
+    <t>test_1111</t>
+  </si>
+  <si>
+    <t>test_1112</t>
+  </si>
+  <si>
+    <t>test_1113</t>
+  </si>
+  <si>
+    <t>test_1114</t>
+  </si>
+  <si>
+    <t>test_1115</t>
+  </si>
+  <si>
+    <t>test_1116</t>
+  </si>
+  <si>
+    <t>test_1117</t>
+  </si>
+  <si>
+    <t>test_1118</t>
+  </si>
+  <si>
+    <t>test_1119</t>
+  </si>
+  <si>
+    <t>test_1120</t>
+  </si>
+  <si>
+    <t>test_1121</t>
+  </si>
+  <si>
+    <t>test_1122</t>
+  </si>
+  <si>
+    <t>test_1123</t>
+  </si>
+  <si>
+    <t>test_1124</t>
+  </si>
+  <si>
+    <t>test_1125</t>
+  </si>
+  <si>
+    <t>test_1126</t>
+  </si>
+  <si>
+    <t>test_1127</t>
+  </si>
+  <si>
+    <t>test_1128</t>
+  </si>
+  <si>
+    <t>test_1129</t>
+  </si>
+  <si>
+    <t>test_1130</t>
+  </si>
+  <si>
+    <t>test_1131</t>
+  </si>
+  <si>
+    <t>test_1132</t>
+  </si>
+  <si>
+    <t>test_1133</t>
+  </si>
+  <si>
+    <t>test_1134</t>
+  </si>
+  <si>
+    <t>test_1135</t>
+  </si>
+  <si>
+    <t>test_1136</t>
+  </si>
+  <si>
+    <t>test_1137</t>
+  </si>
+  <si>
+    <t>test_1138</t>
+  </si>
+  <si>
+    <t>test_1139</t>
+  </si>
+  <si>
+    <t>test_1140</t>
+  </si>
+  <si>
+    <t>test_1141</t>
+  </si>
+  <si>
+    <t>test_1142</t>
+  </si>
+  <si>
+    <t>test_1143</t>
+  </si>
+  <si>
+    <t>test_1144</t>
+  </si>
+  <si>
+    <t>test_1145</t>
+  </si>
+  <si>
+    <t>test_1146</t>
+  </si>
+  <si>
+    <t>test_1147</t>
+  </si>
+  <si>
+    <t>test_1148</t>
+  </si>
+  <si>
+    <t>test_1149</t>
+  </si>
+  <si>
+    <t>test_1150</t>
+  </si>
+  <si>
+    <t>test_1151</t>
+  </si>
+  <si>
+    <t>test_1152</t>
+  </si>
+  <si>
+    <t>test_1153</t>
+  </si>
+  <si>
+    <t>test_1154</t>
+  </si>
+  <si>
+    <t>test_1155</t>
+  </si>
+  <si>
+    <t>test_1156</t>
+  </si>
+  <si>
+    <t>test_1157</t>
+  </si>
+  <si>
+    <t>test_1158</t>
+  </si>
+  <si>
+    <t>test_1159</t>
+  </si>
+  <si>
+    <t>test_1160</t>
+  </si>
+  <si>
+    <t>test_1161</t>
+  </si>
+  <si>
+    <t>test_1162</t>
+  </si>
+  <si>
+    <t>test_1163</t>
+  </si>
+  <si>
+    <t>test_1164</t>
+  </si>
+  <si>
+    <t>test_1165</t>
+  </si>
+  <si>
+    <t>test_1166</t>
+  </si>
+  <si>
+    <t>test_1167</t>
+  </si>
+  <si>
+    <t>test_1168</t>
+  </si>
+  <si>
+    <t>test_1169</t>
+  </si>
+  <si>
+    <t>test_1170</t>
+  </si>
+  <si>
+    <t>test_1171</t>
+  </si>
+  <si>
+    <t>test_670</t>
+  </si>
+  <si>
+    <t>test_671</t>
+  </si>
+  <si>
+    <t>test_672</t>
+  </si>
+  <si>
+    <t>test_673</t>
+  </si>
+  <si>
+    <t>test_674</t>
+  </si>
+  <si>
+    <t>test_675</t>
+  </si>
+  <si>
+    <t>test_676</t>
+  </si>
+  <si>
+    <t>test_677</t>
+  </si>
+  <si>
+    <t>test_678</t>
+  </si>
+  <si>
+    <t>test_679</t>
+  </si>
+  <si>
+    <t>test_680</t>
+  </si>
+  <si>
+    <t>test_681</t>
+  </si>
+  <si>
+    <t>test_682</t>
+  </si>
+  <si>
+    <t>test_683</t>
+  </si>
+  <si>
+    <t>test_684</t>
+  </si>
+  <si>
+    <t>test_685</t>
+  </si>
+  <si>
+    <t>test_686</t>
+  </si>
+  <si>
+    <t>test_687</t>
+  </si>
+  <si>
+    <t>test_688</t>
+  </si>
+  <si>
+    <t>test_689</t>
+  </si>
+  <si>
+    <t>test_690</t>
+  </si>
+  <si>
+    <t>test_691</t>
+  </si>
+  <si>
+    <t>test_692</t>
+  </si>
+  <si>
+    <t>test_693</t>
+  </si>
+  <si>
+    <t>test_694</t>
+  </si>
+  <si>
+    <t>test_695</t>
+  </si>
+  <si>
+    <t>test_696</t>
+  </si>
+  <si>
+    <t>test_697</t>
+  </si>
+  <si>
+    <t>test_698</t>
+  </si>
+  <si>
+    <t>test_699</t>
+  </si>
+  <si>
+    <t>test_700</t>
+  </si>
+  <si>
+    <t>test_701</t>
+  </si>
+  <si>
+    <t>test_702</t>
+  </si>
+  <si>
+    <t>test_703</t>
+  </si>
+  <si>
+    <t>test_704</t>
+  </si>
+  <si>
+    <t>test_705</t>
+  </si>
+  <si>
+    <t>test_706</t>
+  </si>
+  <si>
+    <t>test_707</t>
+  </si>
+  <si>
+    <t>test_708</t>
+  </si>
+  <si>
+    <t>test_709</t>
+  </si>
+  <si>
+    <t>test_710</t>
+  </si>
+  <si>
+    <t>test_711</t>
+  </si>
+  <si>
+    <t>test_712</t>
+  </si>
+  <si>
+    <t>test_713</t>
+  </si>
+  <si>
+    <t>test_714</t>
+  </si>
+  <si>
+    <t>test_715</t>
+  </si>
+  <si>
+    <t>test_716</t>
+  </si>
+  <si>
+    <t>test_717</t>
+  </si>
+  <si>
+    <t>test_718</t>
+  </si>
+  <si>
+    <t>test_719</t>
+  </si>
+  <si>
+    <t>test_720</t>
+  </si>
+  <si>
+    <t>test_721</t>
+  </si>
+  <si>
+    <t>test_722</t>
+  </si>
+  <si>
+    <t>test_723</t>
+  </si>
+  <si>
+    <t>test_724</t>
+  </si>
+  <si>
+    <t>test_725</t>
+  </si>
+  <si>
+    <t>test_726</t>
+  </si>
+  <si>
+    <t>test_727</t>
+  </si>
+  <si>
+    <t>test_728</t>
+  </si>
+  <si>
+    <t>test_729</t>
+  </si>
+  <si>
+    <t>test_730</t>
+  </si>
+  <si>
+    <t>test_731</t>
+  </si>
+  <si>
+    <t>test_732</t>
+  </si>
+  <si>
+    <t>test_733</t>
+  </si>
+  <si>
+    <t>test_734</t>
+  </si>
+  <si>
+    <t>test_735</t>
+  </si>
+  <si>
+    <t>test_736</t>
+  </si>
+  <si>
+    <t>test_737</t>
+  </si>
+  <si>
+    <t>test_738</t>
+  </si>
+  <si>
+    <t>test_739</t>
+  </si>
+  <si>
+    <t>test_740</t>
+  </si>
+  <si>
+    <t>test_741</t>
+  </si>
+  <si>
+    <t>test_742</t>
+  </si>
+  <si>
+    <t>test_743</t>
+  </si>
+  <si>
+    <t>test_744</t>
+  </si>
+  <si>
+    <t>test_745</t>
+  </si>
+  <si>
+    <t>test_746</t>
+  </si>
+  <si>
+    <t>test_747</t>
+  </si>
+  <si>
+    <t>test_748</t>
+  </si>
+  <si>
+    <t>test_749</t>
+  </si>
+  <si>
+    <t>test_750</t>
+  </si>
+  <si>
+    <t>test_751</t>
+  </si>
+  <si>
+    <t>test_752</t>
+  </si>
+  <si>
+    <t>test_753</t>
+  </si>
+  <si>
+    <t>test_754</t>
+  </si>
+  <si>
+    <t>test_755</t>
+  </si>
+  <si>
+    <t>test_756</t>
+  </si>
+  <si>
+    <t>test_757</t>
+  </si>
+  <si>
+    <t>test_758</t>
+  </si>
+  <si>
+    <t>test_759</t>
+  </si>
+  <si>
+    <t>test_760</t>
+  </si>
+  <si>
+    <t>test_761</t>
+  </si>
+  <si>
+    <t>test_762</t>
+  </si>
+  <si>
+    <t>test_763</t>
+  </si>
+  <si>
+    <t>test_764</t>
+  </si>
+  <si>
+    <t>test_765</t>
+  </si>
+  <si>
+    <t>test_766</t>
+  </si>
+  <si>
+    <t>test_767</t>
+  </si>
+  <si>
+    <t>test_768</t>
+  </si>
+  <si>
+    <t>test_769</t>
+  </si>
+  <si>
+    <t>test_770</t>
+  </si>
+  <si>
+    <t>test_771</t>
+  </si>
+  <si>
+    <t>test_772</t>
+  </si>
+  <si>
+    <t>test_773</t>
+  </si>
+  <si>
+    <t>test_774</t>
+  </si>
+  <si>
+    <t>test_775</t>
+  </si>
+  <si>
+    <t>test_776</t>
+  </si>
+  <si>
+    <t>test_777</t>
+  </si>
+  <si>
+    <t>test_778</t>
+  </si>
+  <si>
+    <t>test_779</t>
+  </si>
+  <si>
+    <t>test_780</t>
+  </si>
+  <si>
+    <t>test_781</t>
+  </si>
+  <si>
+    <t>test_782</t>
+  </si>
+  <si>
+    <t>test_783</t>
+  </si>
+  <si>
+    <t>test_784</t>
+  </si>
+  <si>
+    <t>test_785</t>
+  </si>
+  <si>
+    <t>test_786</t>
+  </si>
+  <si>
+    <t>test_787</t>
+  </si>
+  <si>
+    <t>test_788</t>
+  </si>
+  <si>
+    <t>test_789</t>
+  </si>
+  <si>
+    <t>test_790</t>
+  </si>
+  <si>
+    <t>test_791</t>
+  </si>
+  <si>
+    <t>test_792</t>
+  </si>
+  <si>
+    <t>test_793</t>
+  </si>
+  <si>
+    <t>test_794</t>
+  </si>
+  <si>
+    <t>test_795</t>
+  </si>
+  <si>
+    <t>test_796</t>
+  </si>
+  <si>
+    <t>test_797</t>
+  </si>
+  <si>
+    <t>test_798</t>
+  </si>
+  <si>
+    <t>test_799</t>
+  </si>
+  <si>
+    <t>test_800</t>
+  </si>
+  <si>
+    <t>test_801</t>
+  </si>
+  <si>
+    <t>test_802</t>
+  </si>
+  <si>
+    <t>test_803</t>
+  </si>
+  <si>
+    <t>test_804</t>
+  </si>
+  <si>
+    <t>test_805</t>
+  </si>
+  <si>
+    <t>test_806</t>
+  </si>
+  <si>
+    <t>test_807</t>
+  </si>
+  <si>
+    <t>test_808</t>
+  </si>
+  <si>
+    <t>test_809</t>
+  </si>
+  <si>
+    <t>test_810</t>
+  </si>
+  <si>
+    <t>test_811</t>
+  </si>
+  <si>
+    <t>test_812</t>
+  </si>
+  <si>
+    <t>test_813</t>
+  </si>
+  <si>
+    <t>test_814</t>
+  </si>
+  <si>
+    <t>test_815</t>
+  </si>
+  <si>
+    <t>test_816</t>
+  </si>
+  <si>
+    <t>test_817</t>
+  </si>
+  <si>
+    <t>test_818</t>
+  </si>
+  <si>
+    <t>test_819</t>
+  </si>
+  <si>
+    <t>test_820</t>
+  </si>
+  <si>
+    <t>test_821</t>
+  </si>
+  <si>
+    <t>test_822</t>
+  </si>
+  <si>
+    <t>test_823</t>
+  </si>
+  <si>
+    <t>test_824</t>
+  </si>
+  <si>
+    <t>test_825</t>
+  </si>
+  <si>
+    <t>test_826</t>
+  </si>
+  <si>
+    <t>test_827</t>
+  </si>
+  <si>
+    <t>test_828</t>
+  </si>
+  <si>
+    <t>test_829</t>
+  </si>
+  <si>
+    <t>test_830</t>
+  </si>
+  <si>
+    <t>test_831</t>
+  </si>
+  <si>
+    <t>test_832</t>
+  </si>
+  <si>
+    <t>test_833</t>
+  </si>
+  <si>
+    <t>test_834</t>
+  </si>
+  <si>
+    <t>test_835</t>
+  </si>
+  <si>
+    <t>test_836</t>
+  </si>
+  <si>
+    <t>test_837</t>
+  </si>
+  <si>
+    <t>test_838</t>
+  </si>
+  <si>
+    <t>test_839</t>
+  </si>
+  <si>
+    <t>test_840</t>
+  </si>
+  <si>
+    <t>test_841</t>
+  </si>
+  <si>
+    <t>test_842</t>
+  </si>
+  <si>
+    <t>test_843</t>
+  </si>
+  <si>
+    <t>test_844</t>
+  </si>
+  <si>
+    <t>test_845</t>
+  </si>
+  <si>
+    <t>test_846</t>
+  </si>
+  <si>
+    <t>test_847</t>
+  </si>
+  <si>
+    <t>test_848</t>
+  </si>
+  <si>
+    <t>test_849</t>
+  </si>
+  <si>
+    <t>test_850</t>
+  </si>
+  <si>
+    <t>test_851</t>
+  </si>
+  <si>
+    <t>test_852</t>
+  </si>
+  <si>
+    <t>test_853</t>
+  </si>
+  <si>
+    <t>test_854</t>
+  </si>
+  <si>
+    <t>test_855</t>
+  </si>
+  <si>
+    <t>test_856</t>
+  </si>
+  <si>
+    <t>test_857</t>
+  </si>
+  <si>
+    <t>test_858</t>
+  </si>
+  <si>
+    <t>test_859</t>
+  </si>
+  <si>
+    <t>test_860</t>
+  </si>
+  <si>
+    <t>test_861</t>
+  </si>
+  <si>
+    <t>test_862</t>
+  </si>
+  <si>
+    <t>test_863</t>
+  </si>
+  <si>
+    <t>test_864</t>
+  </si>
+  <si>
+    <t>test_865</t>
+  </si>
+  <si>
+    <t>test_866</t>
+  </si>
+  <si>
+    <t>test_867</t>
+  </si>
+  <si>
+    <t>test_868</t>
+  </si>
+  <si>
+    <t>test_869</t>
+  </si>
+  <si>
+    <t>test_870</t>
+  </si>
+  <si>
+    <t>test_871</t>
+  </si>
+  <si>
+    <t>test_872</t>
+  </si>
+  <si>
+    <t>test_873</t>
+  </si>
+  <si>
+    <t>test_874</t>
+  </si>
+  <si>
+    <t>test_875</t>
+  </si>
+  <si>
+    <t>test_876</t>
+  </si>
+  <si>
+    <t>test_877</t>
+  </si>
+  <si>
+    <t>test_878</t>
+  </si>
+  <si>
+    <t>test_879</t>
+  </si>
+  <si>
+    <t>test_880</t>
+  </si>
+  <si>
+    <t>test_881</t>
+  </si>
+  <si>
+    <t>test_882</t>
+  </si>
+  <si>
+    <t>test_883</t>
+  </si>
+  <si>
+    <t>test_884</t>
+  </si>
+  <si>
+    <t>test_885</t>
+  </si>
+  <si>
+    <t>test_886</t>
+  </si>
+  <si>
+    <t>test_887</t>
+  </si>
+  <si>
+    <t>test_888</t>
+  </si>
+  <si>
+    <t>test_889</t>
+  </si>
+  <si>
+    <t>test_890</t>
+  </si>
+  <si>
+    <t>test_891</t>
+  </si>
+  <si>
+    <t>test_892</t>
+  </si>
+  <si>
+    <t>test_893</t>
+  </si>
+  <si>
+    <t>test_894</t>
+  </si>
+  <si>
+    <t>test_895</t>
+  </si>
+  <si>
+    <t>test_896</t>
+  </si>
+  <si>
+    <t>test_897</t>
+  </si>
+  <si>
+    <t>test_898</t>
+  </si>
+  <si>
+    <t>test_899</t>
+  </si>
+  <si>
+    <t>test_900</t>
+  </si>
+  <si>
+    <t>test_901</t>
+  </si>
+  <si>
+    <t>test_902</t>
+  </si>
+  <si>
+    <t>test_903</t>
+  </si>
+  <si>
+    <t>test_904</t>
+  </si>
+  <si>
+    <t>test_905</t>
+  </si>
+  <si>
+    <t>test_906</t>
+  </si>
+  <si>
+    <t>test_907</t>
+  </si>
+  <si>
+    <t>test_908</t>
+  </si>
+  <si>
+    <t>test_909</t>
+  </si>
+  <si>
+    <t>test_910</t>
+  </si>
+  <si>
+    <t>test_911</t>
+  </si>
+  <si>
+    <t>test_912</t>
+  </si>
+  <si>
+    <t>test_913</t>
+  </si>
+  <si>
+    <t>test_914</t>
+  </si>
+  <si>
+    <t>test_915</t>
+  </si>
+  <si>
+    <t>test_916</t>
+  </si>
+  <si>
+    <t>test_917</t>
+  </si>
+  <si>
+    <t>test_918</t>
+  </si>
+  <si>
+    <t>test_919</t>
+  </si>
+  <si>
+    <t>test_920</t>
+  </si>
+  <si>
+    <t>test_921</t>
+  </si>
+  <si>
+    <t>test_922</t>
+  </si>
+  <si>
+    <t>test_923</t>
+  </si>
+  <si>
+    <t>test_924</t>
+  </si>
+  <si>
+    <t>test_925</t>
+  </si>
+  <si>
+    <t>test_926</t>
+  </si>
+  <si>
+    <t>test_927</t>
+  </si>
+  <si>
+    <t>test_928</t>
+  </si>
+  <si>
+    <t>test_929</t>
+  </si>
+  <si>
+    <t>test_930</t>
+  </si>
+  <si>
+    <t>test_931</t>
+  </si>
+  <si>
+    <t>test_932</t>
+  </si>
+  <si>
+    <t>test_933</t>
+  </si>
+  <si>
+    <t>test_934</t>
+  </si>
+  <si>
+    <t>test_935</t>
+  </si>
+  <si>
+    <t>test_936</t>
+  </si>
+  <si>
+    <t>test_937</t>
+  </si>
+  <si>
+    <t>test_938</t>
+  </si>
+  <si>
+    <t>test_939</t>
+  </si>
+  <si>
+    <t>test_940</t>
+  </si>
+  <si>
+    <t>test_941</t>
+  </si>
+  <si>
+    <t>test_942</t>
+  </si>
+  <si>
+    <t>test_943</t>
+  </si>
+  <si>
+    <t>test_944</t>
+  </si>
+  <si>
+    <t>test_945</t>
+  </si>
+  <si>
+    <t>test_946</t>
+  </si>
+  <si>
+    <t>test_947</t>
+  </si>
+  <si>
+    <t>test_948</t>
+  </si>
+  <si>
+    <t>test_949</t>
+  </si>
+  <si>
+    <t>test_950</t>
+  </si>
+  <si>
+    <t>test_951</t>
+  </si>
+  <si>
+    <t>test_952</t>
+  </si>
+  <si>
+    <t>test_953</t>
+  </si>
+  <si>
+    <t>test_954</t>
+  </si>
+  <si>
+    <t>test_955</t>
+  </si>
+  <si>
+    <t>test_956</t>
+  </si>
+  <si>
+    <t>test_957</t>
+  </si>
+  <si>
+    <t>test_958</t>
+  </si>
+  <si>
+    <t>test_959</t>
+  </si>
+  <si>
+    <t>test_960</t>
+  </si>
+  <si>
+    <t>test_961</t>
+  </si>
+  <si>
+    <t>test_962</t>
+  </si>
+  <si>
+    <t>test_963</t>
+  </si>
+  <si>
+    <t>test_964</t>
+  </si>
+  <si>
+    <t>test_965</t>
+  </si>
+  <si>
+    <t>test_966</t>
+  </si>
+  <si>
+    <t>test_967</t>
+  </si>
+  <si>
+    <t>test_968</t>
+  </si>
+  <si>
+    <t>test_969</t>
+  </si>
+  <si>
+    <t>test_970</t>
+  </si>
+  <si>
+    <t>test_971</t>
+  </si>
+  <si>
+    <t>test_972</t>
+  </si>
+  <si>
+    <t>test_973</t>
+  </si>
+  <si>
+    <t>test_974</t>
+  </si>
+  <si>
+    <t>test_975</t>
+  </si>
+  <si>
+    <t>test_976</t>
+  </si>
+  <si>
+    <t>test_977</t>
+  </si>
+  <si>
+    <t>test_978</t>
+  </si>
+  <si>
+    <t>test_979</t>
+  </si>
+  <si>
+    <t>test_980</t>
+  </si>
+  <si>
+    <t>test_981</t>
+  </si>
+  <si>
+    <t>test_982</t>
+  </si>
+  <si>
+    <t>test_983</t>
+  </si>
+  <si>
+    <t>test_984</t>
+  </si>
+  <si>
+    <t>test_985</t>
+  </si>
+  <si>
+    <t>test_986</t>
+  </si>
+  <si>
+    <t>test_987</t>
+  </si>
+  <si>
+    <t>test_988</t>
+  </si>
+  <si>
+    <t>test_989</t>
+  </si>
+  <si>
+    <t>test_990</t>
+  </si>
+  <si>
+    <t>test_991</t>
+  </si>
+  <si>
+    <t>test_992</t>
+  </si>
+  <si>
+    <t>test_993</t>
+  </si>
+  <si>
+    <t>test_994</t>
+  </si>
+  <si>
+    <t>test_995</t>
+  </si>
+  <si>
+    <t>test_996</t>
+  </si>
+  <si>
+    <t>test_997</t>
+  </si>
+  <si>
+    <t>test_998</t>
+  </si>
+  <si>
+    <t>test_999</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -63,13 +1589,21 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -107,7 +1641,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -141,6 +1675,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -175,9 +1710,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -350,35 +1886,29 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C504"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="A50" sqref="A50:C50"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" s="1" customFormat="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>test_id</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>FAIL</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>SUCCESS</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>test_1000</t>
-        </is>
+    <row r="1" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>3</v>
       </c>
       <c r="B2">
         <v>7</v>
@@ -387,11 +1917,9 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>test_1001</t>
-        </is>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>4</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -400,11 +1928,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>test_1002</t>
-        </is>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>5</v>
       </c>
       <c r="B4">
         <v>20</v>
@@ -413,11 +1939,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>test_1003</t>
-        </is>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>6</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -426,11 +1950,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>test_1004</t>
-        </is>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>7</v>
       </c>
       <c r="B6">
         <v>20</v>
@@ -439,11 +1961,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>test_1005</t>
-        </is>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>8</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -452,11 +1972,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>test_1006</t>
-        </is>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>9</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -465,11 +1983,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>test_1007</t>
-        </is>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>10</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -478,11 +1994,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>test_1008</t>
-        </is>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>11</v>
       </c>
       <c r="B10">
         <v>13</v>
@@ -491,11 +2005,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>test_1009</t>
-        </is>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>12</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -504,11 +2016,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>test_1010</t>
-        </is>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>13</v>
       </c>
       <c r="B12">
         <v>0</v>
@@ -517,11 +2027,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>test_1011</t>
-        </is>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>14</v>
       </c>
       <c r="B13">
         <v>0</v>
@@ -530,11 +2038,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>test_1012</t>
-        </is>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>15</v>
       </c>
       <c r="B14">
         <v>20</v>
@@ -543,11 +2049,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>test_1013</t>
-        </is>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>16</v>
       </c>
       <c r="B15">
         <v>4</v>
@@ -556,11 +2060,9 @@
         <v>16</v>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>test_1014</t>
-        </is>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>17</v>
       </c>
       <c r="B16">
         <v>20</v>
@@ -569,11 +2071,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>test_1015</t>
-        </is>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>18</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -582,11 +2082,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>test_1016</t>
-        </is>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>19</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -595,11 +2093,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>test_1017</t>
-        </is>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>20</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -608,11 +2104,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>test_1018</t>
-        </is>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>21</v>
       </c>
       <c r="B20">
         <v>20</v>
@@ -621,11 +2115,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>test_1019</t>
-        </is>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>22</v>
       </c>
       <c r="B21">
         <v>1</v>
@@ -634,11 +2126,9 @@
         <v>19</v>
       </c>
     </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>test_1020</t>
-        </is>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>23</v>
       </c>
       <c r="B22">
         <v>20</v>
@@ -647,11 +2137,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>test_1021</t>
-        </is>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>24</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -660,11 +2148,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>test_1022</t>
-        </is>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>25</v>
       </c>
       <c r="B24">
         <v>0</v>
@@ -673,11 +2159,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>test_1023</t>
-        </is>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>26</v>
       </c>
       <c r="B25">
         <v>0</v>
@@ -686,11 +2170,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>test_1024</t>
-        </is>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>27</v>
       </c>
       <c r="B26">
         <v>0</v>
@@ -699,11 +2181,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>test_1025</t>
-        </is>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>28</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -712,11 +2192,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>test_1026</t>
-        </is>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>29</v>
       </c>
       <c r="B28">
         <v>0</v>
@@ -725,11 +2203,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>test_1027</t>
-        </is>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>30</v>
       </c>
       <c r="B29">
         <v>0</v>
@@ -738,11 +2214,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>test_1028</t>
-        </is>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>31</v>
       </c>
       <c r="B30">
         <v>20</v>
@@ -751,11 +2225,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>test_1029</t>
-        </is>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>32</v>
       </c>
       <c r="B31">
         <v>20</v>
@@ -764,11 +2236,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>test_1030</t>
-        </is>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>33</v>
       </c>
       <c r="B32">
         <v>14</v>
@@ -777,11 +2247,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>test_1031</t>
-        </is>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>34</v>
       </c>
       <c r="B33">
         <v>1</v>
@@ -790,11 +2258,9 @@
         <v>19</v>
       </c>
     </row>
-    <row r="34">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t>test_1032</t>
-        </is>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>35</v>
       </c>
       <c r="B34">
         <v>0</v>
@@ -803,11 +2269,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="35">
-      <c r="A35" t="inlineStr">
-        <is>
-          <t>test_1033</t>
-        </is>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>36</v>
       </c>
       <c r="B35">
         <v>6</v>
@@ -816,11 +2280,9 @@
         <v>14</v>
       </c>
     </row>
-    <row r="36">
-      <c r="A36" t="inlineStr">
-        <is>
-          <t>test_1034</t>
-        </is>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>37</v>
       </c>
       <c r="B36">
         <v>0</v>
@@ -829,11 +2291,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="37">
-      <c r="A37" t="inlineStr">
-        <is>
-          <t>test_1035</t>
-        </is>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>38</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -842,11 +2302,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="38">
-      <c r="A38" t="inlineStr">
-        <is>
-          <t>test_1036</t>
-        </is>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>39</v>
       </c>
       <c r="B38">
         <v>3</v>
@@ -855,11 +2313,9 @@
         <v>17</v>
       </c>
     </row>
-    <row r="39">
-      <c r="A39" t="inlineStr">
-        <is>
-          <t>test_1037</t>
-        </is>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>40</v>
       </c>
       <c r="B39">
         <v>0</v>
@@ -868,11 +2324,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="40">
-      <c r="A40" t="inlineStr">
-        <is>
-          <t>test_1038</t>
-        </is>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>41</v>
       </c>
       <c r="B40">
         <v>20</v>
@@ -881,11 +2335,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41">
-      <c r="A41" t="inlineStr">
-        <is>
-          <t>test_1039</t>
-        </is>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>42</v>
       </c>
       <c r="B41">
         <v>0</v>
@@ -894,11 +2346,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="42">
-      <c r="A42" t="inlineStr">
-        <is>
-          <t>test_1040</t>
-        </is>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>43</v>
       </c>
       <c r="B42">
         <v>20</v>
@@ -907,11 +2357,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43">
-      <c r="A43" t="inlineStr">
-        <is>
-          <t>test_1041</t>
-        </is>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>44</v>
       </c>
       <c r="B43">
         <v>0</v>
@@ -920,11 +2368,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="44">
-      <c r="A44" t="inlineStr">
-        <is>
-          <t>test_1042</t>
-        </is>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>45</v>
       </c>
       <c r="B44">
         <v>5</v>
@@ -933,11 +2379,9 @@
         <v>15</v>
       </c>
     </row>
-    <row r="45">
-      <c r="A45" t="inlineStr">
-        <is>
-          <t>test_1043</t>
-        </is>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>46</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -946,11 +2390,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="46">
-      <c r="A46" t="inlineStr">
-        <is>
-          <t>test_1044</t>
-        </is>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>47</v>
       </c>
       <c r="B46">
         <v>19</v>
@@ -959,11 +2401,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47">
-      <c r="A47" t="inlineStr">
-        <is>
-          <t>test_1045</t>
-        </is>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>48</v>
       </c>
       <c r="B47">
         <v>0</v>
@@ -972,11 +2412,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="48">
-      <c r="A48" t="inlineStr">
-        <is>
-          <t>test_1046</t>
-        </is>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>49</v>
       </c>
       <c r="B48">
         <v>0</v>
@@ -985,11 +2423,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="49">
-      <c r="A49" t="inlineStr">
-        <is>
-          <t>test_1047</t>
-        </is>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>50</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -998,11 +2434,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="50">
-      <c r="A50" t="inlineStr">
-        <is>
-          <t>test_1048</t>
-        </is>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>51</v>
       </c>
       <c r="B50">
         <v>1</v>
@@ -1011,11 +2445,9 @@
         <v>19</v>
       </c>
     </row>
-    <row r="51">
-      <c r="A51" t="inlineStr">
-        <is>
-          <t>test_1049</t>
-        </is>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>52</v>
       </c>
       <c r="B51">
         <v>0</v>
@@ -1024,11 +2456,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="52">
-      <c r="A52" t="inlineStr">
-        <is>
-          <t>test_1050</t>
-        </is>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>53</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1037,11 +2467,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="53">
-      <c r="A53" t="inlineStr">
-        <is>
-          <t>test_1051</t>
-        </is>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>54</v>
       </c>
       <c r="B53">
         <v>0</v>
@@ -1050,11 +2478,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="54">
-      <c r="A54" t="inlineStr">
-        <is>
-          <t>test_1052</t>
-        </is>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>55</v>
       </c>
       <c r="B54">
         <v>13</v>
@@ -1063,11 +2489,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="55">
-      <c r="A55" t="inlineStr">
-        <is>
-          <t>test_1053</t>
-        </is>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>56</v>
       </c>
       <c r="B55">
         <v>0</v>
@@ -1076,11 +2500,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="56">
-      <c r="A56" t="inlineStr">
-        <is>
-          <t>test_1054</t>
-        </is>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
+        <v>57</v>
       </c>
       <c r="B56">
         <v>0</v>
@@ -1089,11 +2511,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="57">
-      <c r="A57" t="inlineStr">
-        <is>
-          <t>test_1055</t>
-        </is>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
+        <v>58</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1102,11 +2522,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="58">
-      <c r="A58" t="inlineStr">
-        <is>
-          <t>test_1056</t>
-        </is>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
+        <v>59</v>
       </c>
       <c r="B58">
         <v>0</v>
@@ -1115,11 +2533,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="59">
-      <c r="A59" t="inlineStr">
-        <is>
-          <t>test_1057</t>
-        </is>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
+        <v>60</v>
       </c>
       <c r="B59">
         <v>0</v>
@@ -1128,11 +2544,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="60">
-      <c r="A60" t="inlineStr">
-        <is>
-          <t>test_1058</t>
-        </is>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
+        <v>61</v>
       </c>
       <c r="B60">
         <v>20</v>
@@ -1141,11 +2555,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61">
-      <c r="A61" t="inlineStr">
-        <is>
-          <t>test_1059</t>
-        </is>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
+        <v>62</v>
       </c>
       <c r="B61">
         <v>0</v>
@@ -1154,11 +2566,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="62">
-      <c r="A62" t="inlineStr">
-        <is>
-          <t>test_1060</t>
-        </is>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
+        <v>63</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1167,11 +2577,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="63">
-      <c r="A63" t="inlineStr">
-        <is>
-          <t>test_1061</t>
-        </is>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A63" t="s">
+        <v>64</v>
       </c>
       <c r="B63">
         <v>0</v>
@@ -1180,11 +2588,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="64">
-      <c r="A64" t="inlineStr">
-        <is>
-          <t>test_1062</t>
-        </is>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A64" t="s">
+        <v>65</v>
       </c>
       <c r="B64">
         <v>0</v>
@@ -1193,11 +2599,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="65">
-      <c r="A65" t="inlineStr">
-        <is>
-          <t>test_1063</t>
-        </is>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A65" t="s">
+        <v>66</v>
       </c>
       <c r="B65">
         <v>0</v>
@@ -1206,11 +2610,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="66">
-      <c r="A66" t="inlineStr">
-        <is>
-          <t>test_1064</t>
-        </is>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A66" t="s">
+        <v>67</v>
       </c>
       <c r="B66">
         <v>2</v>
@@ -1219,11 +2621,9 @@
         <v>18</v>
       </c>
     </row>
-    <row r="67">
-      <c r="A67" t="inlineStr">
-        <is>
-          <t>test_1065</t>
-        </is>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A67" t="s">
+        <v>68</v>
       </c>
       <c r="B67">
         <v>0</v>
@@ -1232,11 +2632,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="68">
-      <c r="A68" t="inlineStr">
-        <is>
-          <t>test_1066</t>
-        </is>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A68" t="s">
+        <v>69</v>
       </c>
       <c r="B68">
         <v>0</v>
@@ -1245,11 +2643,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="69">
-      <c r="A69" t="inlineStr">
-        <is>
-          <t>test_1067</t>
-        </is>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A69" t="s">
+        <v>70</v>
       </c>
       <c r="B69">
         <v>0</v>
@@ -1258,11 +2654,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="70">
-      <c r="A70" t="inlineStr">
-        <is>
-          <t>test_1068</t>
-        </is>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A70" t="s">
+        <v>71</v>
       </c>
       <c r="B70">
         <v>20</v>
@@ -1271,11 +2665,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71">
-      <c r="A71" t="inlineStr">
-        <is>
-          <t>test_1069</t>
-        </is>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A71" t="s">
+        <v>72</v>
       </c>
       <c r="B71">
         <v>0</v>
@@ -1284,11 +2676,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="72">
-      <c r="A72" t="inlineStr">
-        <is>
-          <t>test_1070</t>
-        </is>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A72" t="s">
+        <v>73</v>
       </c>
       <c r="B72">
         <v>20</v>
@@ -1297,11 +2687,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73">
-      <c r="A73" t="inlineStr">
-        <is>
-          <t>test_1071</t>
-        </is>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A73" t="s">
+        <v>74</v>
       </c>
       <c r="B73">
         <v>0</v>
@@ -1310,11 +2698,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="74">
-      <c r="A74" t="inlineStr">
-        <is>
-          <t>test_1072</t>
-        </is>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A74" t="s">
+        <v>75</v>
       </c>
       <c r="B74">
         <v>0</v>
@@ -1323,11 +2709,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="75">
-      <c r="A75" t="inlineStr">
-        <is>
-          <t>test_1073</t>
-        </is>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A75" t="s">
+        <v>76</v>
       </c>
       <c r="B75">
         <v>0</v>
@@ -1336,11 +2720,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="76">
-      <c r="A76" t="inlineStr">
-        <is>
-          <t>test_1074</t>
-        </is>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A76" t="s">
+        <v>77</v>
       </c>
       <c r="B76">
         <v>0</v>
@@ -1349,11 +2731,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="77">
-      <c r="A77" t="inlineStr">
-        <is>
-          <t>test_1075</t>
-        </is>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A77" t="s">
+        <v>78</v>
       </c>
       <c r="B77">
         <v>0</v>
@@ -1362,11 +2742,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="78">
-      <c r="A78" t="inlineStr">
-        <is>
-          <t>test_1076</t>
-        </is>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A78" t="s">
+        <v>79</v>
       </c>
       <c r="B78">
         <v>20</v>
@@ -1375,11 +2753,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79">
-      <c r="A79" t="inlineStr">
-        <is>
-          <t>test_1077</t>
-        </is>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A79" t="s">
+        <v>80</v>
       </c>
       <c r="B79">
         <v>0</v>
@@ -1388,11 +2764,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="80">
-      <c r="A80" t="inlineStr">
-        <is>
-          <t>test_1078</t>
-        </is>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A80" t="s">
+        <v>81</v>
       </c>
       <c r="B80">
         <v>20</v>
@@ -1401,11 +2775,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81">
-      <c r="A81" t="inlineStr">
-        <is>
-          <t>test_1079</t>
-        </is>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A81" t="s">
+        <v>82</v>
       </c>
       <c r="B81">
         <v>0</v>
@@ -1414,11 +2786,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="82">
-      <c r="A82" t="inlineStr">
-        <is>
-          <t>test_1080</t>
-        </is>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A82" t="s">
+        <v>83</v>
       </c>
       <c r="B82">
         <v>20</v>
@@ -1427,11 +2797,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83">
-      <c r="A83" t="inlineStr">
-        <is>
-          <t>test_1081</t>
-        </is>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A83" t="s">
+        <v>84</v>
       </c>
       <c r="B83">
         <v>0</v>
@@ -1440,11 +2808,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="84">
-      <c r="A84" t="inlineStr">
-        <is>
-          <t>test_1082</t>
-        </is>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A84" t="s">
+        <v>85</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -1453,11 +2819,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="85">
-      <c r="A85" t="inlineStr">
-        <is>
-          <t>test_1083</t>
-        </is>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A85" t="s">
+        <v>86</v>
       </c>
       <c r="B85">
         <v>0</v>
@@ -1466,11 +2830,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="86">
-      <c r="A86" t="inlineStr">
-        <is>
-          <t>test_1084</t>
-        </is>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A86" t="s">
+        <v>87</v>
       </c>
       <c r="B86">
         <v>20</v>
@@ -1479,11 +2841,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87">
-      <c r="A87" t="inlineStr">
-        <is>
-          <t>test_1085</t>
-        </is>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A87" t="s">
+        <v>88</v>
       </c>
       <c r="B87">
         <v>0</v>
@@ -1492,11 +2852,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="88">
-      <c r="A88" t="inlineStr">
-        <is>
-          <t>test_1086</t>
-        </is>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A88" t="s">
+        <v>89</v>
       </c>
       <c r="B88">
         <v>20</v>
@@ -1505,11 +2863,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89">
-      <c r="A89" t="inlineStr">
-        <is>
-          <t>test_1087</t>
-        </is>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A89" t="s">
+        <v>90</v>
       </c>
       <c r="B89">
         <v>0</v>
@@ -1518,11 +2874,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="90">
-      <c r="A90" t="inlineStr">
-        <is>
-          <t>test_1088</t>
-        </is>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A90" t="s">
+        <v>91</v>
       </c>
       <c r="B90">
         <v>20</v>
@@ -1531,11 +2885,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91">
-      <c r="A91" t="inlineStr">
-        <is>
-          <t>test_1089</t>
-        </is>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A91" t="s">
+        <v>92</v>
       </c>
       <c r="B91">
         <v>0</v>
@@ -1544,11 +2896,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="92">
-      <c r="A92" t="inlineStr">
-        <is>
-          <t>test_1090</t>
-        </is>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A92" t="s">
+        <v>93</v>
       </c>
       <c r="B92">
         <v>20</v>
@@ -1557,11 +2907,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93">
-      <c r="A93" t="inlineStr">
-        <is>
-          <t>test_1091</t>
-        </is>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A93" t="s">
+        <v>94</v>
       </c>
       <c r="B93">
         <v>0</v>
@@ -1570,11 +2918,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="94">
-      <c r="A94" t="inlineStr">
-        <is>
-          <t>test_1092</t>
-        </is>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A94" t="s">
+        <v>95</v>
       </c>
       <c r="B94">
         <v>20</v>
@@ -1583,11 +2929,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95">
-      <c r="A95" t="inlineStr">
-        <is>
-          <t>test_1093</t>
-        </is>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A95" t="s">
+        <v>96</v>
       </c>
       <c r="B95">
         <v>0</v>
@@ -1596,11 +2940,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="96">
-      <c r="A96" t="inlineStr">
-        <is>
-          <t>test_1094</t>
-        </is>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A96" t="s">
+        <v>97</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -1609,11 +2951,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="97">
-      <c r="A97" t="inlineStr">
-        <is>
-          <t>test_1095</t>
-        </is>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A97" t="s">
+        <v>98</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -1622,11 +2962,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="98">
-      <c r="A98" t="inlineStr">
-        <is>
-          <t>test_1096</t>
-        </is>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A98" t="s">
+        <v>99</v>
       </c>
       <c r="B98">
         <v>1</v>
@@ -1635,11 +2973,9 @@
         <v>19</v>
       </c>
     </row>
-    <row r="99">
-      <c r="A99" t="inlineStr">
-        <is>
-          <t>test_1097</t>
-        </is>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A99" t="s">
+        <v>100</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -1648,11 +2984,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="100">
-      <c r="A100" t="inlineStr">
-        <is>
-          <t>test_1098</t>
-        </is>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A100" t="s">
+        <v>101</v>
       </c>
       <c r="B100">
         <v>20</v>
@@ -1661,11 +2995,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101">
-      <c r="A101" t="inlineStr">
-        <is>
-          <t>test_1099</t>
-        </is>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A101" t="s">
+        <v>102</v>
       </c>
       <c r="B101">
         <v>1</v>
@@ -1674,11 +3006,9 @@
         <v>19</v>
       </c>
     </row>
-    <row r="102">
-      <c r="A102" t="inlineStr">
-        <is>
-          <t>test_1100</t>
-        </is>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A102" t="s">
+        <v>103</v>
       </c>
       <c r="B102">
         <v>0</v>
@@ -1687,11 +3017,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="103">
-      <c r="A103" t="inlineStr">
-        <is>
-          <t>test_1101</t>
-        </is>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A103" t="s">
+        <v>104</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -1700,11 +3028,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="104">
-      <c r="A104" t="inlineStr">
-        <is>
-          <t>test_1102</t>
-        </is>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A104" t="s">
+        <v>105</v>
       </c>
       <c r="B104">
         <v>20</v>
@@ -1713,11 +3039,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105">
-      <c r="A105" t="inlineStr">
-        <is>
-          <t>test_1103</t>
-        </is>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A105" t="s">
+        <v>106</v>
       </c>
       <c r="B105">
         <v>0</v>
@@ -1726,11 +3050,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="106">
-      <c r="A106" t="inlineStr">
-        <is>
-          <t>test_1104</t>
-        </is>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A106" t="s">
+        <v>107</v>
       </c>
       <c r="B106">
         <v>0</v>
@@ -1739,11 +3061,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="107">
-      <c r="A107" t="inlineStr">
-        <is>
-          <t>test_1105</t>
-        </is>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A107" t="s">
+        <v>108</v>
       </c>
       <c r="B107">
         <v>0</v>
@@ -1752,11 +3072,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="108">
-      <c r="A108" t="inlineStr">
-        <is>
-          <t>test_1106</t>
-        </is>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A108" t="s">
+        <v>109</v>
       </c>
       <c r="B108">
         <v>0</v>
@@ -1765,11 +3083,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="109">
-      <c r="A109" t="inlineStr">
-        <is>
-          <t>test_1107</t>
-        </is>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A109" t="s">
+        <v>110</v>
       </c>
       <c r="B109">
         <v>0</v>
@@ -1778,11 +3094,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="110">
-      <c r="A110" t="inlineStr">
-        <is>
-          <t>test_1108</t>
-        </is>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A110" t="s">
+        <v>111</v>
       </c>
       <c r="B110">
         <v>20</v>
@@ -1791,11 +3105,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111">
-      <c r="A111" t="inlineStr">
-        <is>
-          <t>test_1109</t>
-        </is>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A111" t="s">
+        <v>112</v>
       </c>
       <c r="B111">
         <v>0</v>
@@ -1804,11 +3116,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="112">
-      <c r="A112" t="inlineStr">
-        <is>
-          <t>test_1110</t>
-        </is>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A112" t="s">
+        <v>113</v>
       </c>
       <c r="B112">
         <v>20</v>
@@ -1817,11 +3127,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113">
-      <c r="A113" t="inlineStr">
-        <is>
-          <t>test_1111</t>
-        </is>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A113" t="s">
+        <v>114</v>
       </c>
       <c r="B113">
         <v>0</v>
@@ -1830,11 +3138,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="114">
-      <c r="A114" t="inlineStr">
-        <is>
-          <t>test_1112</t>
-        </is>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A114" t="s">
+        <v>115</v>
       </c>
       <c r="B114">
         <v>20</v>
@@ -1843,11 +3149,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115">
-      <c r="A115" t="inlineStr">
-        <is>
-          <t>test_1113</t>
-        </is>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A115" t="s">
+        <v>116</v>
       </c>
       <c r="B115">
         <v>0</v>
@@ -1856,11 +3160,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="116">
-      <c r="A116" t="inlineStr">
-        <is>
-          <t>test_1114</t>
-        </is>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A116" t="s">
+        <v>117</v>
       </c>
       <c r="B116">
         <v>0</v>
@@ -1869,11 +3171,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="117">
-      <c r="A117" t="inlineStr">
-        <is>
-          <t>test_1115</t>
-        </is>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A117" t="s">
+        <v>118</v>
       </c>
       <c r="B117">
         <v>0</v>
@@ -1882,11 +3182,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="118">
-      <c r="A118" t="inlineStr">
-        <is>
-          <t>test_1116</t>
-        </is>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A118" t="s">
+        <v>119</v>
       </c>
       <c r="B118">
         <v>0</v>
@@ -1895,11 +3193,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="119">
-      <c r="A119" t="inlineStr">
-        <is>
-          <t>test_1117</t>
-        </is>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A119" t="s">
+        <v>120</v>
       </c>
       <c r="B119">
         <v>0</v>
@@ -1908,11 +3204,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="120">
-      <c r="A120" t="inlineStr">
-        <is>
-          <t>test_1118</t>
-        </is>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A120" t="s">
+        <v>121</v>
       </c>
       <c r="B120">
         <v>0</v>
@@ -1921,11 +3215,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="121">
-      <c r="A121" t="inlineStr">
-        <is>
-          <t>test_1119</t>
-        </is>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A121" t="s">
+        <v>122</v>
       </c>
       <c r="B121">
         <v>0</v>
@@ -1934,11 +3226,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="122">
-      <c r="A122" t="inlineStr">
-        <is>
-          <t>test_1120</t>
-        </is>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A122" t="s">
+        <v>123</v>
       </c>
       <c r="B122">
         <v>20</v>
@@ -1947,11 +3237,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123">
-      <c r="A123" t="inlineStr">
-        <is>
-          <t>test_1121</t>
-        </is>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A123" t="s">
+        <v>124</v>
       </c>
       <c r="B123">
         <v>0</v>
@@ -1960,11 +3248,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="124">
-      <c r="A124" t="inlineStr">
-        <is>
-          <t>test_1122</t>
-        </is>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A124" t="s">
+        <v>125</v>
       </c>
       <c r="B124">
         <v>20</v>
@@ -1973,11 +3259,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125">
-      <c r="A125" t="inlineStr">
-        <is>
-          <t>test_1123</t>
-        </is>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A125" t="s">
+        <v>126</v>
       </c>
       <c r="B125">
         <v>0</v>
@@ -1986,11 +3270,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="126">
-      <c r="A126" t="inlineStr">
-        <is>
-          <t>test_1124</t>
-        </is>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A126" t="s">
+        <v>127</v>
       </c>
       <c r="B126">
         <v>0</v>
@@ -1999,11 +3281,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="127">
-      <c r="A127" t="inlineStr">
-        <is>
-          <t>test_1125</t>
-        </is>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A127" t="s">
+        <v>128</v>
       </c>
       <c r="B127">
         <v>0</v>
@@ -2012,11 +3292,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="128">
-      <c r="A128" t="inlineStr">
-        <is>
-          <t>test_1126</t>
-        </is>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A128" t="s">
+        <v>129</v>
       </c>
       <c r="B128">
         <v>19</v>
@@ -2025,11 +3303,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="129">
-      <c r="A129" t="inlineStr">
-        <is>
-          <t>test_1127</t>
-        </is>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A129" t="s">
+        <v>130</v>
       </c>
       <c r="B129">
         <v>0</v>
@@ -2038,11 +3314,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="130">
-      <c r="A130" t="inlineStr">
-        <is>
-          <t>test_1128</t>
-        </is>
+    <row r="130" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A130" t="s">
+        <v>131</v>
       </c>
       <c r="B130">
         <v>0</v>
@@ -2051,11 +3325,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="131">
-      <c r="A131" t="inlineStr">
-        <is>
-          <t>test_1129</t>
-        </is>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A131" t="s">
+        <v>132</v>
       </c>
       <c r="B131">
         <v>0</v>
@@ -2064,11 +3336,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="132">
-      <c r="A132" t="inlineStr">
-        <is>
-          <t>test_1130</t>
-        </is>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A132" t="s">
+        <v>133</v>
       </c>
       <c r="B132">
         <v>0</v>
@@ -2077,11 +3347,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="133">
-      <c r="A133" t="inlineStr">
-        <is>
-          <t>test_1131</t>
-        </is>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A133" t="s">
+        <v>134</v>
       </c>
       <c r="B133">
         <v>0</v>
@@ -2090,11 +3358,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="134">
-      <c r="A134" t="inlineStr">
-        <is>
-          <t>test_1132</t>
-        </is>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A134" t="s">
+        <v>135</v>
       </c>
       <c r="B134">
         <v>0</v>
@@ -2103,11 +3369,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="135">
-      <c r="A135" t="inlineStr">
-        <is>
-          <t>test_1133</t>
-        </is>
+    <row r="135" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A135" t="s">
+        <v>136</v>
       </c>
       <c r="B135">
         <v>0</v>
@@ -2116,11 +3380,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="136">
-      <c r="A136" t="inlineStr">
-        <is>
-          <t>test_1134</t>
-        </is>
+    <row r="136" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A136" t="s">
+        <v>137</v>
       </c>
       <c r="B136">
         <v>20</v>
@@ -2129,11 +3391,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137">
-      <c r="A137" t="inlineStr">
-        <is>
-          <t>test_1135</t>
-        </is>
+    <row r="137" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A137" t="s">
+        <v>138</v>
       </c>
       <c r="B137">
         <v>0</v>
@@ -2142,11 +3402,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="138">
-      <c r="A138" t="inlineStr">
-        <is>
-          <t>test_1136</t>
-        </is>
+    <row r="138" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A138" t="s">
+        <v>139</v>
       </c>
       <c r="B138">
         <v>0</v>
@@ -2155,11 +3413,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="139">
-      <c r="A139" t="inlineStr">
-        <is>
-          <t>test_1137</t>
-        </is>
+    <row r="139" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A139" t="s">
+        <v>140</v>
       </c>
       <c r="B139">
         <v>0</v>
@@ -2168,11 +3424,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="140">
-      <c r="A140" t="inlineStr">
-        <is>
-          <t>test_1138</t>
-        </is>
+    <row r="140" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A140" t="s">
+        <v>141</v>
       </c>
       <c r="B140">
         <v>0</v>
@@ -2181,11 +3435,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="141">
-      <c r="A141" t="inlineStr">
-        <is>
-          <t>test_1139</t>
-        </is>
+    <row r="141" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A141" t="s">
+        <v>142</v>
       </c>
       <c r="B141">
         <v>0</v>
@@ -2194,11 +3446,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="142">
-      <c r="A142" t="inlineStr">
-        <is>
-          <t>test_1140</t>
-        </is>
+    <row r="142" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A142" t="s">
+        <v>143</v>
       </c>
       <c r="B142">
         <v>0</v>
@@ -2207,11 +3457,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="143">
-      <c r="A143" t="inlineStr">
-        <is>
-          <t>test_1141</t>
-        </is>
+    <row r="143" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A143" t="s">
+        <v>144</v>
       </c>
       <c r="B143">
         <v>0</v>
@@ -2220,11 +3468,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="144">
-      <c r="A144" t="inlineStr">
-        <is>
-          <t>test_1142</t>
-        </is>
+    <row r="144" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A144" t="s">
+        <v>145</v>
       </c>
       <c r="B144">
         <v>0</v>
@@ -2233,11 +3479,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="145">
-      <c r="A145" t="inlineStr">
-        <is>
-          <t>test_1143</t>
-        </is>
+    <row r="145" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A145" t="s">
+        <v>146</v>
       </c>
       <c r="B145">
         <v>0</v>
@@ -2246,11 +3490,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="146">
-      <c r="A146" t="inlineStr">
-        <is>
-          <t>test_1144</t>
-        </is>
+    <row r="146" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A146" t="s">
+        <v>147</v>
       </c>
       <c r="B146">
         <v>0</v>
@@ -2259,11 +3501,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="147">
-      <c r="A147" t="inlineStr">
-        <is>
-          <t>test_1145</t>
-        </is>
+    <row r="147" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A147" t="s">
+        <v>148</v>
       </c>
       <c r="B147">
         <v>0</v>
@@ -2272,11 +3512,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="148">
-      <c r="A148" t="inlineStr">
-        <is>
-          <t>test_1146</t>
-        </is>
+    <row r="148" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A148" t="s">
+        <v>149</v>
       </c>
       <c r="B148">
         <v>20</v>
@@ -2285,11 +3523,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="149">
-      <c r="A149" t="inlineStr">
-        <is>
-          <t>test_1147</t>
-        </is>
+    <row r="149" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A149" t="s">
+        <v>150</v>
       </c>
       <c r="B149">
         <v>20</v>
@@ -2298,11 +3534,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="150">
-      <c r="A150" t="inlineStr">
-        <is>
-          <t>test_1148</t>
-        </is>
+    <row r="150" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A150" t="s">
+        <v>151</v>
       </c>
       <c r="B150">
         <v>20</v>
@@ -2311,11 +3545,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="151">
-      <c r="A151" t="inlineStr">
-        <is>
-          <t>test_1149</t>
-        </is>
+    <row r="151" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A151" t="s">
+        <v>152</v>
       </c>
       <c r="B151">
         <v>0</v>
@@ -2324,11 +3556,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="152">
-      <c r="A152" t="inlineStr">
-        <is>
-          <t>test_1150</t>
-        </is>
+    <row r="152" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A152" t="s">
+        <v>153</v>
       </c>
       <c r="B152">
         <v>20</v>
@@ -2337,11 +3567,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="153">
-      <c r="A153" t="inlineStr">
-        <is>
-          <t>test_1151</t>
-        </is>
+    <row r="153" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A153" t="s">
+        <v>154</v>
       </c>
       <c r="B153">
         <v>0</v>
@@ -2350,11 +3578,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="154">
-      <c r="A154" t="inlineStr">
-        <is>
-          <t>test_1152</t>
-        </is>
+    <row r="154" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A154" t="s">
+        <v>155</v>
       </c>
       <c r="B154">
         <v>0</v>
@@ -2363,11 +3589,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="155">
-      <c r="A155" t="inlineStr">
-        <is>
-          <t>test_1153</t>
-        </is>
+    <row r="155" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A155" t="s">
+        <v>156</v>
       </c>
       <c r="B155">
         <v>0</v>
@@ -2376,11 +3600,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="156">
-      <c r="A156" t="inlineStr">
-        <is>
-          <t>test_1154</t>
-        </is>
+    <row r="156" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A156" t="s">
+        <v>157</v>
       </c>
       <c r="B156">
         <v>20</v>
@@ -2389,11 +3611,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="157">
-      <c r="A157" t="inlineStr">
-        <is>
-          <t>test_1155</t>
-        </is>
+    <row r="157" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A157" t="s">
+        <v>158</v>
       </c>
       <c r="B157">
         <v>0</v>
@@ -2402,11 +3622,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="158">
-      <c r="A158" t="inlineStr">
-        <is>
-          <t>test_1156</t>
-        </is>
+    <row r="158" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A158" t="s">
+        <v>159</v>
       </c>
       <c r="B158">
         <v>0</v>
@@ -2415,11 +3633,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="159">
-      <c r="A159" t="inlineStr">
-        <is>
-          <t>test_1157</t>
-        </is>
+    <row r="159" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A159" t="s">
+        <v>160</v>
       </c>
       <c r="B159">
         <v>0</v>
@@ -2428,11 +3644,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="160">
-      <c r="A160" t="inlineStr">
-        <is>
-          <t>test_1158</t>
-        </is>
+    <row r="160" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A160" t="s">
+        <v>161</v>
       </c>
       <c r="B160">
         <v>0</v>
@@ -2441,11 +3655,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="161">
-      <c r="A161" t="inlineStr">
-        <is>
-          <t>test_1159</t>
-        </is>
+    <row r="161" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A161" t="s">
+        <v>162</v>
       </c>
       <c r="B161">
         <v>0</v>
@@ -2454,11 +3666,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="162">
-      <c r="A162" t="inlineStr">
-        <is>
-          <t>test_1160</t>
-        </is>
+    <row r="162" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A162" t="s">
+        <v>163</v>
       </c>
       <c r="B162">
         <v>0</v>
@@ -2467,11 +3677,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="163">
-      <c r="A163" t="inlineStr">
-        <is>
-          <t>test_1161</t>
-        </is>
+    <row r="163" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A163" t="s">
+        <v>164</v>
       </c>
       <c r="B163">
         <v>0</v>
@@ -2480,11 +3688,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="164">
-      <c r="A164" t="inlineStr">
-        <is>
-          <t>test_1162</t>
-        </is>
+    <row r="164" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A164" t="s">
+        <v>165</v>
       </c>
       <c r="B164">
         <v>0</v>
@@ -2493,11 +3699,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="165">
-      <c r="A165" t="inlineStr">
-        <is>
-          <t>test_1163</t>
-        </is>
+    <row r="165" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A165" t="s">
+        <v>166</v>
       </c>
       <c r="B165">
         <v>0</v>
@@ -2506,11 +3710,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="166">
-      <c r="A166" t="inlineStr">
-        <is>
-          <t>test_1164</t>
-        </is>
+    <row r="166" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A166" t="s">
+        <v>167</v>
       </c>
       <c r="B166">
         <v>0</v>
@@ -2519,11 +3721,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="167">
-      <c r="A167" t="inlineStr">
-        <is>
-          <t>test_1165</t>
-        </is>
+    <row r="167" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A167" t="s">
+        <v>168</v>
       </c>
       <c r="B167">
         <v>0</v>
@@ -2532,11 +3732,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="168">
-      <c r="A168" t="inlineStr">
-        <is>
-          <t>test_1166</t>
-        </is>
+    <row r="168" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A168" t="s">
+        <v>169</v>
       </c>
       <c r="B168">
         <v>20</v>
@@ -2545,11 +3743,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="169">
-      <c r="A169" t="inlineStr">
-        <is>
-          <t>test_1167</t>
-        </is>
+    <row r="169" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A169" t="s">
+        <v>170</v>
       </c>
       <c r="B169">
         <v>0</v>
@@ -2558,11 +3754,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="170">
-      <c r="A170" t="inlineStr">
-        <is>
-          <t>test_1168</t>
-        </is>
+    <row r="170" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A170" t="s">
+        <v>171</v>
       </c>
       <c r="B170">
         <v>0</v>
@@ -2571,11 +3765,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="171">
-      <c r="A171" t="inlineStr">
-        <is>
-          <t>test_1169</t>
-        </is>
+    <row r="171" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A171" t="s">
+        <v>172</v>
       </c>
       <c r="B171">
         <v>0</v>
@@ -2584,11 +3776,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="172">
-      <c r="A172" t="inlineStr">
-        <is>
-          <t>test_1170</t>
-        </is>
+    <row r="172" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A172" t="s">
+        <v>173</v>
       </c>
       <c r="B172">
         <v>0</v>
@@ -2597,11 +3787,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="173">
-      <c r="A173" t="inlineStr">
-        <is>
-          <t>test_1171</t>
-        </is>
+    <row r="173" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A173" t="s">
+        <v>174</v>
       </c>
       <c r="B173">
         <v>0</v>
@@ -2610,11 +3798,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="174">
-      <c r="A174" t="inlineStr">
-        <is>
-          <t>test_670</t>
-        </is>
+    <row r="174" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A174" t="s">
+        <v>175</v>
       </c>
       <c r="B174">
         <v>0</v>
@@ -2623,11 +3809,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="175">
-      <c r="A175" t="inlineStr">
-        <is>
-          <t>test_671</t>
-        </is>
+    <row r="175" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A175" t="s">
+        <v>176</v>
       </c>
       <c r="B175">
         <v>0</v>
@@ -2636,11 +3820,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="176">
-      <c r="A176" t="inlineStr">
-        <is>
-          <t>test_672</t>
-        </is>
+    <row r="176" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A176" t="s">
+        <v>177</v>
       </c>
       <c r="B176">
         <v>0</v>
@@ -2649,11 +3831,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="177">
-      <c r="A177" t="inlineStr">
-        <is>
-          <t>test_673</t>
-        </is>
+    <row r="177" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A177" t="s">
+        <v>178</v>
       </c>
       <c r="B177">
         <v>0</v>
@@ -2662,11 +3842,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="178">
-      <c r="A178" t="inlineStr">
-        <is>
-          <t>test_674</t>
-        </is>
+    <row r="178" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A178" t="s">
+        <v>179</v>
       </c>
       <c r="B178">
         <v>0</v>
@@ -2675,11 +3853,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="179">
-      <c r="A179" t="inlineStr">
-        <is>
-          <t>test_675</t>
-        </is>
+    <row r="179" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A179" t="s">
+        <v>180</v>
       </c>
       <c r="B179">
         <v>0</v>
@@ -2688,11 +3864,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="180">
-      <c r="A180" t="inlineStr">
-        <is>
-          <t>test_676</t>
-        </is>
+    <row r="180" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A180" t="s">
+        <v>181</v>
       </c>
       <c r="B180">
         <v>0</v>
@@ -2701,11 +3875,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="181">
-      <c r="A181" t="inlineStr">
-        <is>
-          <t>test_677</t>
-        </is>
+    <row r="181" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A181" t="s">
+        <v>182</v>
       </c>
       <c r="B181">
         <v>0</v>
@@ -2714,11 +3886,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="182">
-      <c r="A182" t="inlineStr">
-        <is>
-          <t>test_678</t>
-        </is>
+    <row r="182" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A182" t="s">
+        <v>183</v>
       </c>
       <c r="B182">
         <v>20</v>
@@ -2727,11 +3897,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="183">
-      <c r="A183" t="inlineStr">
-        <is>
-          <t>test_679</t>
-        </is>
+    <row r="183" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A183" t="s">
+        <v>184</v>
       </c>
       <c r="B183">
         <v>0</v>
@@ -2740,11 +3908,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="184">
-      <c r="A184" t="inlineStr">
-        <is>
-          <t>test_680</t>
-        </is>
+    <row r="184" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A184" t="s">
+        <v>185</v>
       </c>
       <c r="B184">
         <v>20</v>
@@ -2753,11 +3919,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="185">
-      <c r="A185" t="inlineStr">
-        <is>
-          <t>test_681</t>
-        </is>
+    <row r="185" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A185" t="s">
+        <v>186</v>
       </c>
       <c r="B185">
         <v>0</v>
@@ -2766,11 +3930,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="186">
-      <c r="A186" t="inlineStr">
-        <is>
-          <t>test_682</t>
-        </is>
+    <row r="186" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A186" t="s">
+        <v>187</v>
       </c>
       <c r="B186">
         <v>0</v>
@@ -2779,11 +3941,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="187">
-      <c r="A187" t="inlineStr">
-        <is>
-          <t>test_683</t>
-        </is>
+    <row r="187" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A187" t="s">
+        <v>188</v>
       </c>
       <c r="B187">
         <v>0</v>
@@ -2792,11 +3952,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="188">
-      <c r="A188" t="inlineStr">
-        <is>
-          <t>test_684</t>
-        </is>
+    <row r="188" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A188" t="s">
+        <v>189</v>
       </c>
       <c r="B188">
         <v>0</v>
@@ -2805,11 +3963,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="189">
-      <c r="A189" t="inlineStr">
-        <is>
-          <t>test_685</t>
-        </is>
+    <row r="189" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A189" t="s">
+        <v>190</v>
       </c>
       <c r="B189">
         <v>0</v>
@@ -2818,11 +3974,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="190">
-      <c r="A190" t="inlineStr">
-        <is>
-          <t>test_686</t>
-        </is>
+    <row r="190" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A190" t="s">
+        <v>191</v>
       </c>
       <c r="B190">
         <v>20</v>
@@ -2831,11 +3985,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="191">
-      <c r="A191" t="inlineStr">
-        <is>
-          <t>test_687</t>
-        </is>
+    <row r="191" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A191" t="s">
+        <v>192</v>
       </c>
       <c r="B191">
         <v>0</v>
@@ -2844,11 +3996,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="192">
-      <c r="A192" t="inlineStr">
-        <is>
-          <t>test_688</t>
-        </is>
+    <row r="192" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A192" t="s">
+        <v>193</v>
       </c>
       <c r="B192">
         <v>19</v>
@@ -2857,11 +4007,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="193">
-      <c r="A193" t="inlineStr">
-        <is>
-          <t>test_689</t>
-        </is>
+    <row r="193" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A193" t="s">
+        <v>194</v>
       </c>
       <c r="B193">
         <v>0</v>
@@ -2870,11 +4018,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="194">
-      <c r="A194" t="inlineStr">
-        <is>
-          <t>test_690</t>
-        </is>
+    <row r="194" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A194" t="s">
+        <v>195</v>
       </c>
       <c r="B194">
         <v>20</v>
@@ -2883,11 +4029,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="195">
-      <c r="A195" t="inlineStr">
-        <is>
-          <t>test_691</t>
-        </is>
+    <row r="195" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A195" t="s">
+        <v>196</v>
       </c>
       <c r="B195">
         <v>0</v>
@@ -2896,11 +4040,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="196">
-      <c r="A196" t="inlineStr">
-        <is>
-          <t>test_692</t>
-        </is>
+    <row r="196" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A196" t="s">
+        <v>197</v>
       </c>
       <c r="B196">
         <v>0</v>
@@ -2909,11 +4051,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="197">
-      <c r="A197" t="inlineStr">
-        <is>
-          <t>test_693</t>
-        </is>
+    <row r="197" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A197" t="s">
+        <v>198</v>
       </c>
       <c r="B197">
         <v>0</v>
@@ -2922,11 +4062,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="198">
-      <c r="A198" t="inlineStr">
-        <is>
-          <t>test_694</t>
-        </is>
+    <row r="198" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A198" t="s">
+        <v>199</v>
       </c>
       <c r="B198">
         <v>20</v>
@@ -2935,11 +4073,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="199">
-      <c r="A199" t="inlineStr">
-        <is>
-          <t>test_695</t>
-        </is>
+    <row r="199" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A199" t="s">
+        <v>200</v>
       </c>
       <c r="B199">
         <v>0</v>
@@ -2948,11 +4084,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="200">
-      <c r="A200" t="inlineStr">
-        <is>
-          <t>test_696</t>
-        </is>
+    <row r="200" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A200" t="s">
+        <v>201</v>
       </c>
       <c r="B200">
         <v>0</v>
@@ -2961,11 +4095,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="201">
-      <c r="A201" t="inlineStr">
-        <is>
-          <t>test_697</t>
-        </is>
+    <row r="201" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A201" t="s">
+        <v>202</v>
       </c>
       <c r="B201">
         <v>0</v>
@@ -2974,11 +4106,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="202">
-      <c r="A202" t="inlineStr">
-        <is>
-          <t>test_698</t>
-        </is>
+    <row r="202" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A202" t="s">
+        <v>203</v>
       </c>
       <c r="B202">
         <v>0</v>
@@ -2987,11 +4117,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="203">
-      <c r="A203" t="inlineStr">
-        <is>
-          <t>test_699</t>
-        </is>
+    <row r="203" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A203" t="s">
+        <v>204</v>
       </c>
       <c r="B203">
         <v>0</v>
@@ -3000,11 +4128,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="204">
-      <c r="A204" t="inlineStr">
-        <is>
-          <t>test_700</t>
-        </is>
+    <row r="204" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A204" t="s">
+        <v>205</v>
       </c>
       <c r="B204">
         <v>20</v>
@@ -3013,11 +4139,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="205">
-      <c r="A205" t="inlineStr">
-        <is>
-          <t>test_701</t>
-        </is>
+    <row r="205" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A205" t="s">
+        <v>206</v>
       </c>
       <c r="B205">
         <v>0</v>
@@ -3026,11 +4150,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="206">
-      <c r="A206" t="inlineStr">
-        <is>
-          <t>test_702</t>
-        </is>
+    <row r="206" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A206" t="s">
+        <v>207</v>
       </c>
       <c r="B206">
         <v>0</v>
@@ -3039,11 +4161,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="207">
-      <c r="A207" t="inlineStr">
-        <is>
-          <t>test_703</t>
-        </is>
+    <row r="207" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A207" t="s">
+        <v>208</v>
       </c>
       <c r="B207">
         <v>0</v>
@@ -3052,11 +4172,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="208">
-      <c r="A208" t="inlineStr">
-        <is>
-          <t>test_704</t>
-        </is>
+    <row r="208" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A208" t="s">
+        <v>209</v>
       </c>
       <c r="B208">
         <v>0</v>
@@ -3065,11 +4183,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="209">
-      <c r="A209" t="inlineStr">
-        <is>
-          <t>test_705</t>
-        </is>
+    <row r="209" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A209" t="s">
+        <v>210</v>
       </c>
       <c r="B209">
         <v>0</v>
@@ -3078,11 +4194,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="210">
-      <c r="A210" t="inlineStr">
-        <is>
-          <t>test_706</t>
-        </is>
+    <row r="210" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A210" t="s">
+        <v>211</v>
       </c>
       <c r="B210">
         <v>20</v>
@@ -3091,11 +4205,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="211">
-      <c r="A211" t="inlineStr">
-        <is>
-          <t>test_707</t>
-        </is>
+    <row r="211" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A211" t="s">
+        <v>212</v>
       </c>
       <c r="B211">
         <v>0</v>
@@ -3104,11 +4216,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="212">
-      <c r="A212" t="inlineStr">
-        <is>
-          <t>test_708</t>
-        </is>
+    <row r="212" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A212" t="s">
+        <v>213</v>
       </c>
       <c r="B212">
         <v>20</v>
@@ -3117,11 +4227,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="213">
-      <c r="A213" t="inlineStr">
-        <is>
-          <t>test_709</t>
-        </is>
+    <row r="213" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A213" t="s">
+        <v>214</v>
       </c>
       <c r="B213">
         <v>0</v>
@@ -3130,11 +4238,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="214">
-      <c r="A214" t="inlineStr">
-        <is>
-          <t>test_710</t>
-        </is>
+    <row r="214" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A214" t="s">
+        <v>215</v>
       </c>
       <c r="B214">
         <v>20</v>
@@ -3143,11 +4249,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="215">
-      <c r="A215" t="inlineStr">
-        <is>
-          <t>test_711</t>
-        </is>
+    <row r="215" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A215" t="s">
+        <v>216</v>
       </c>
       <c r="B215">
         <v>0</v>
@@ -3156,11 +4260,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="216">
-      <c r="A216" t="inlineStr">
-        <is>
-          <t>test_712</t>
-        </is>
+    <row r="216" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A216" t="s">
+        <v>217</v>
       </c>
       <c r="B216">
         <v>20</v>
@@ -3169,11 +4271,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="217">
-      <c r="A217" t="inlineStr">
-        <is>
-          <t>test_713</t>
-        </is>
+    <row r="217" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A217" t="s">
+        <v>218</v>
       </c>
       <c r="B217">
         <v>0</v>
@@ -3182,11 +4282,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="218">
-      <c r="A218" t="inlineStr">
-        <is>
-          <t>test_714</t>
-        </is>
+    <row r="218" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A218" t="s">
+        <v>219</v>
       </c>
       <c r="B218">
         <v>0</v>
@@ -3195,11 +4293,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="219">
-      <c r="A219" t="inlineStr">
-        <is>
-          <t>test_715</t>
-        </is>
+    <row r="219" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A219" t="s">
+        <v>220</v>
       </c>
       <c r="B219">
         <v>0</v>
@@ -3208,11 +4304,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="220">
-      <c r="A220" t="inlineStr">
-        <is>
-          <t>test_716</t>
-        </is>
+    <row r="220" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A220" t="s">
+        <v>221</v>
       </c>
       <c r="B220">
         <v>0</v>
@@ -3221,11 +4315,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="221">
-      <c r="A221" t="inlineStr">
-        <is>
-          <t>test_717</t>
-        </is>
+    <row r="221" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A221" t="s">
+        <v>222</v>
       </c>
       <c r="B221">
         <v>0</v>
@@ -3234,11 +4326,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="222">
-      <c r="A222" t="inlineStr">
-        <is>
-          <t>test_718</t>
-        </is>
+    <row r="222" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A222" t="s">
+        <v>223</v>
       </c>
       <c r="B222">
         <v>0</v>
@@ -3247,11 +4337,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="223">
-      <c r="A223" t="inlineStr">
-        <is>
-          <t>test_719</t>
-        </is>
+    <row r="223" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A223" t="s">
+        <v>224</v>
       </c>
       <c r="B223">
         <v>0</v>
@@ -3260,11 +4348,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="224">
-      <c r="A224" t="inlineStr">
-        <is>
-          <t>test_720</t>
-        </is>
+    <row r="224" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A224" t="s">
+        <v>225</v>
       </c>
       <c r="B224">
         <v>0</v>
@@ -3273,11 +4359,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="225">
-      <c r="A225" t="inlineStr">
-        <is>
-          <t>test_721</t>
-        </is>
+    <row r="225" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A225" t="s">
+        <v>226</v>
       </c>
       <c r="B225">
         <v>0</v>
@@ -3286,11 +4370,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="226">
-      <c r="A226" t="inlineStr">
-        <is>
-          <t>test_722</t>
-        </is>
+    <row r="226" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A226" t="s">
+        <v>227</v>
       </c>
       <c r="B226">
         <v>6</v>
@@ -3299,11 +4381,9 @@
         <v>14</v>
       </c>
     </row>
-    <row r="227">
-      <c r="A227" t="inlineStr">
-        <is>
-          <t>test_723</t>
-        </is>
+    <row r="227" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A227" t="s">
+        <v>228</v>
       </c>
       <c r="B227">
         <v>0</v>
@@ -3312,11 +4392,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="228">
-      <c r="A228" t="inlineStr">
-        <is>
-          <t>test_724</t>
-        </is>
+    <row r="228" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A228" t="s">
+        <v>229</v>
       </c>
       <c r="B228">
         <v>0</v>
@@ -3325,11 +4403,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="229">
-      <c r="A229" t="inlineStr">
-        <is>
-          <t>test_725</t>
-        </is>
+    <row r="229" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A229" t="s">
+        <v>230</v>
       </c>
       <c r="B229">
         <v>0</v>
@@ -3338,11 +4414,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="230">
-      <c r="A230" t="inlineStr">
-        <is>
-          <t>test_726</t>
-        </is>
+    <row r="230" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A230" t="s">
+        <v>231</v>
       </c>
       <c r="B230">
         <v>0</v>
@@ -3351,11 +4425,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="231">
-      <c r="A231" t="inlineStr">
-        <is>
-          <t>test_727</t>
-        </is>
+    <row r="231" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A231" t="s">
+        <v>232</v>
       </c>
       <c r="B231">
         <v>0</v>
@@ -3364,11 +4436,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="232">
-      <c r="A232" t="inlineStr">
-        <is>
-          <t>test_728</t>
-        </is>
+    <row r="232" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A232" t="s">
+        <v>233</v>
       </c>
       <c r="B232">
         <v>20</v>
@@ -3377,11 +4447,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="233">
-      <c r="A233" t="inlineStr">
-        <is>
-          <t>test_729</t>
-        </is>
+    <row r="233" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A233" t="s">
+        <v>234</v>
       </c>
       <c r="B233">
         <v>0</v>
@@ -3390,11 +4458,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="234">
-      <c r="A234" t="inlineStr">
-        <is>
-          <t>test_730</t>
-        </is>
+    <row r="234" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A234" t="s">
+        <v>235</v>
       </c>
       <c r="B234">
         <v>20</v>
@@ -3403,11 +4469,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="235">
-      <c r="A235" t="inlineStr">
-        <is>
-          <t>test_731</t>
-        </is>
+    <row r="235" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A235" t="s">
+        <v>236</v>
       </c>
       <c r="B235">
         <v>0</v>
@@ -3416,11 +4480,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="236">
-      <c r="A236" t="inlineStr">
-        <is>
-          <t>test_732</t>
-        </is>
+    <row r="236" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A236" t="s">
+        <v>237</v>
       </c>
       <c r="B236">
         <v>20</v>
@@ -3429,11 +4491,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="237">
-      <c r="A237" t="inlineStr">
-        <is>
-          <t>test_733</t>
-        </is>
+    <row r="237" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A237" t="s">
+        <v>238</v>
       </c>
       <c r="B237">
         <v>0</v>
@@ -3442,11 +4502,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="238">
-      <c r="A238" t="inlineStr">
-        <is>
-          <t>test_734</t>
-        </is>
+    <row r="238" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A238" t="s">
+        <v>239</v>
       </c>
       <c r="B238">
         <v>20</v>
@@ -3455,11 +4513,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="239">
-      <c r="A239" t="inlineStr">
-        <is>
-          <t>test_735</t>
-        </is>
+    <row r="239" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A239" t="s">
+        <v>240</v>
       </c>
       <c r="B239">
         <v>0</v>
@@ -3468,11 +4524,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="240">
-      <c r="A240" t="inlineStr">
-        <is>
-          <t>test_736</t>
-        </is>
+    <row r="240" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A240" t="s">
+        <v>241</v>
       </c>
       <c r="B240">
         <v>0</v>
@@ -3481,11 +4535,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="241">
-      <c r="A241" t="inlineStr">
-        <is>
-          <t>test_737</t>
-        </is>
+    <row r="241" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A241" t="s">
+        <v>242</v>
       </c>
       <c r="B241">
         <v>0</v>
@@ -3494,11 +4546,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="242">
-      <c r="A242" t="inlineStr">
-        <is>
-          <t>test_738</t>
-        </is>
+    <row r="242" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A242" t="s">
+        <v>243</v>
       </c>
       <c r="B242">
         <v>20</v>
@@ -3507,11 +4557,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="243">
-      <c r="A243" t="inlineStr">
-        <is>
-          <t>test_739</t>
-        </is>
+    <row r="243" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A243" t="s">
+        <v>244</v>
       </c>
       <c r="B243">
         <v>20</v>
@@ -3520,11 +4568,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="244">
-      <c r="A244" t="inlineStr">
-        <is>
-          <t>test_740</t>
-        </is>
+    <row r="244" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A244" t="s">
+        <v>245</v>
       </c>
       <c r="B244">
         <v>0</v>
@@ -3533,11 +4579,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="245">
-      <c r="A245" t="inlineStr">
-        <is>
-          <t>test_741</t>
-        </is>
+    <row r="245" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A245" t="s">
+        <v>246</v>
       </c>
       <c r="B245">
         <v>19</v>
@@ -3546,11 +4590,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="246">
-      <c r="A246" t="inlineStr">
-        <is>
-          <t>test_742</t>
-        </is>
+    <row r="246" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A246" t="s">
+        <v>247</v>
       </c>
       <c r="B246">
         <v>0</v>
@@ -3559,11 +4601,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="247">
-      <c r="A247" t="inlineStr">
-        <is>
-          <t>test_743</t>
-        </is>
+    <row r="247" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A247" t="s">
+        <v>248</v>
       </c>
       <c r="B247">
         <v>0</v>
@@ -3572,11 +4612,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="248">
-      <c r="A248" t="inlineStr">
-        <is>
-          <t>test_744</t>
-        </is>
+    <row r="248" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A248" t="s">
+        <v>249</v>
       </c>
       <c r="B248">
         <v>0</v>
@@ -3585,11 +4623,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="249">
-      <c r="A249" t="inlineStr">
-        <is>
-          <t>test_745</t>
-        </is>
+    <row r="249" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A249" t="s">
+        <v>250</v>
       </c>
       <c r="B249">
         <v>0</v>
@@ -3598,11 +4634,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="250">
-      <c r="A250" t="inlineStr">
-        <is>
-          <t>test_746</t>
-        </is>
+    <row r="250" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A250" t="s">
+        <v>251</v>
       </c>
       <c r="B250">
         <v>0</v>
@@ -3611,11 +4645,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="251">
-      <c r="A251" t="inlineStr">
-        <is>
-          <t>test_747</t>
-        </is>
+    <row r="251" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A251" t="s">
+        <v>252</v>
       </c>
       <c r="B251">
         <v>0</v>
@@ -3624,11 +4656,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="252">
-      <c r="A252" t="inlineStr">
-        <is>
-          <t>test_748</t>
-        </is>
+    <row r="252" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A252" t="s">
+        <v>253</v>
       </c>
       <c r="B252">
         <v>0</v>
@@ -3637,11 +4667,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="253">
-      <c r="A253" t="inlineStr">
-        <is>
-          <t>test_749</t>
-        </is>
+    <row r="253" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A253" t="s">
+        <v>254</v>
       </c>
       <c r="B253">
         <v>0</v>
@@ -3650,11 +4678,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="254">
-      <c r="A254" t="inlineStr">
-        <is>
-          <t>test_750</t>
-        </is>
+    <row r="254" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A254" t="s">
+        <v>255</v>
       </c>
       <c r="B254">
         <v>0</v>
@@ -3663,11 +4689,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="255">
-      <c r="A255" t="inlineStr">
-        <is>
-          <t>test_751</t>
-        </is>
+    <row r="255" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A255" t="s">
+        <v>256</v>
       </c>
       <c r="B255">
         <v>0</v>
@@ -3676,11 +4700,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="256">
-      <c r="A256" t="inlineStr">
-        <is>
-          <t>test_752</t>
-        </is>
+    <row r="256" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A256" t="s">
+        <v>257</v>
       </c>
       <c r="B256">
         <v>0</v>
@@ -3689,11 +4711,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="257">
-      <c r="A257" t="inlineStr">
-        <is>
-          <t>test_753</t>
-        </is>
+    <row r="257" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A257" t="s">
+        <v>258</v>
       </c>
       <c r="B257">
         <v>0</v>
@@ -3702,11 +4722,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="258">
-      <c r="A258" t="inlineStr">
-        <is>
-          <t>test_754</t>
-        </is>
+    <row r="258" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A258" t="s">
+        <v>259</v>
       </c>
       <c r="B258">
         <v>0</v>
@@ -3715,11 +4733,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="259">
-      <c r="A259" t="inlineStr">
-        <is>
-          <t>test_755</t>
-        </is>
+    <row r="259" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A259" t="s">
+        <v>260</v>
       </c>
       <c r="B259">
         <v>0</v>
@@ -3728,11 +4744,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="260">
-      <c r="A260" t="inlineStr">
-        <is>
-          <t>test_756</t>
-        </is>
+    <row r="260" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A260" t="s">
+        <v>261</v>
       </c>
       <c r="B260">
         <v>0</v>
@@ -3741,11 +4755,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="261">
-      <c r="A261" t="inlineStr">
-        <is>
-          <t>test_757</t>
-        </is>
+    <row r="261" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A261" t="s">
+        <v>262</v>
       </c>
       <c r="B261">
         <v>0</v>
@@ -3754,11 +4766,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="262">
-      <c r="A262" t="inlineStr">
-        <is>
-          <t>test_758</t>
-        </is>
+    <row r="262" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A262" t="s">
+        <v>263</v>
       </c>
       <c r="B262">
         <v>0</v>
@@ -3767,11 +4777,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="263">
-      <c r="A263" t="inlineStr">
-        <is>
-          <t>test_759</t>
-        </is>
+    <row r="263" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A263" t="s">
+        <v>264</v>
       </c>
       <c r="B263">
         <v>0</v>
@@ -3780,11 +4788,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="264">
-      <c r="A264" t="inlineStr">
-        <is>
-          <t>test_760</t>
-        </is>
+    <row r="264" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A264" t="s">
+        <v>265</v>
       </c>
       <c r="B264">
         <v>0</v>
@@ -3793,11 +4799,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="265">
-      <c r="A265" t="inlineStr">
-        <is>
-          <t>test_761</t>
-        </is>
+    <row r="265" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A265" t="s">
+        <v>266</v>
       </c>
       <c r="B265">
         <v>0</v>
@@ -3806,11 +4810,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="266">
-      <c r="A266" t="inlineStr">
-        <is>
-          <t>test_762</t>
-        </is>
+    <row r="266" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A266" t="s">
+        <v>267</v>
       </c>
       <c r="B266">
         <v>20</v>
@@ -3819,11 +4821,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="267">
-      <c r="A267" t="inlineStr">
-        <is>
-          <t>test_763</t>
-        </is>
+    <row r="267" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A267" t="s">
+        <v>268</v>
       </c>
       <c r="B267">
         <v>0</v>
@@ -3832,11 +4832,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="268">
-      <c r="A268" t="inlineStr">
-        <is>
-          <t>test_764</t>
-        </is>
+    <row r="268" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A268" t="s">
+        <v>269</v>
       </c>
       <c r="B268">
         <v>0</v>
@@ -3845,11 +4843,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="269">
-      <c r="A269" t="inlineStr">
-        <is>
-          <t>test_765</t>
-        </is>
+    <row r="269" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A269" t="s">
+        <v>270</v>
       </c>
       <c r="B269">
         <v>0</v>
@@ -3858,11 +4854,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="270">
-      <c r="A270" t="inlineStr">
-        <is>
-          <t>test_766</t>
-        </is>
+    <row r="270" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A270" t="s">
+        <v>271</v>
       </c>
       <c r="B270">
         <v>20</v>
@@ -3871,11 +4865,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="271">
-      <c r="A271" t="inlineStr">
-        <is>
-          <t>test_767</t>
-        </is>
+    <row r="271" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A271" t="s">
+        <v>272</v>
       </c>
       <c r="B271">
         <v>0</v>
@@ -3884,11 +4876,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="272">
-      <c r="A272" t="inlineStr">
-        <is>
-          <t>test_768</t>
-        </is>
+    <row r="272" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A272" t="s">
+        <v>273</v>
       </c>
       <c r="B272">
         <v>0</v>
@@ -3897,11 +4887,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="273">
-      <c r="A273" t="inlineStr">
-        <is>
-          <t>test_769</t>
-        </is>
+    <row r="273" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A273" t="s">
+        <v>274</v>
       </c>
       <c r="B273">
         <v>0</v>
@@ -3910,11 +4898,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="274">
-      <c r="A274" t="inlineStr">
-        <is>
-          <t>test_770</t>
-        </is>
+    <row r="274" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A274" t="s">
+        <v>275</v>
       </c>
       <c r="B274">
         <v>0</v>
@@ -3923,11 +4909,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="275">
-      <c r="A275" t="inlineStr">
-        <is>
-          <t>test_771</t>
-        </is>
+    <row r="275" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A275" t="s">
+        <v>276</v>
       </c>
       <c r="B275">
         <v>0</v>
@@ -3936,11 +4920,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="276">
-      <c r="A276" t="inlineStr">
-        <is>
-          <t>test_772</t>
-        </is>
+    <row r="276" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A276" t="s">
+        <v>277</v>
       </c>
       <c r="B276">
         <v>20</v>
@@ -3949,11 +4931,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="277">
-      <c r="A277" t="inlineStr">
-        <is>
-          <t>test_773</t>
-        </is>
+    <row r="277" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A277" t="s">
+        <v>278</v>
       </c>
       <c r="B277">
         <v>0</v>
@@ -3962,11 +4942,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="278">
-      <c r="A278" t="inlineStr">
-        <is>
-          <t>test_774</t>
-        </is>
+    <row r="278" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A278" t="s">
+        <v>279</v>
       </c>
       <c r="B278">
         <v>0</v>
@@ -3975,11 +4953,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="279">
-      <c r="A279" t="inlineStr">
-        <is>
-          <t>test_775</t>
-        </is>
+    <row r="279" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A279" t="s">
+        <v>280</v>
       </c>
       <c r="B279">
         <v>0</v>
@@ -3988,11 +4964,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="280">
-      <c r="A280" t="inlineStr">
-        <is>
-          <t>test_776</t>
-        </is>
+    <row r="280" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A280" t="s">
+        <v>281</v>
       </c>
       <c r="B280">
         <v>0</v>
@@ -4001,11 +4975,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="281">
-      <c r="A281" t="inlineStr">
-        <is>
-          <t>test_777</t>
-        </is>
+    <row r="281" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A281" t="s">
+        <v>282</v>
       </c>
       <c r="B281">
         <v>0</v>
@@ -4014,11 +4986,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="282">
-      <c r="A282" t="inlineStr">
-        <is>
-          <t>test_778</t>
-        </is>
+    <row r="282" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A282" t="s">
+        <v>283</v>
       </c>
       <c r="B282">
         <v>0</v>
@@ -4027,11 +4997,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="283">
-      <c r="A283" t="inlineStr">
-        <is>
-          <t>test_779</t>
-        </is>
+    <row r="283" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A283" t="s">
+        <v>284</v>
       </c>
       <c r="B283">
         <v>0</v>
@@ -4040,11 +5008,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="284">
-      <c r="A284" t="inlineStr">
-        <is>
-          <t>test_780</t>
-        </is>
+    <row r="284" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A284" t="s">
+        <v>285</v>
       </c>
       <c r="B284">
         <v>0</v>
@@ -4053,11 +5019,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="285">
-      <c r="A285" t="inlineStr">
-        <is>
-          <t>test_781</t>
-        </is>
+    <row r="285" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A285" t="s">
+        <v>286</v>
       </c>
       <c r="B285">
         <v>0</v>
@@ -4066,11 +5030,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="286">
-      <c r="A286" t="inlineStr">
-        <is>
-          <t>test_782</t>
-        </is>
+    <row r="286" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A286" t="s">
+        <v>287</v>
       </c>
       <c r="B286">
         <v>1</v>
@@ -4079,11 +5041,9 @@
         <v>19</v>
       </c>
     </row>
-    <row r="287">
-      <c r="A287" t="inlineStr">
-        <is>
-          <t>test_783</t>
-        </is>
+    <row r="287" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A287" t="s">
+        <v>288</v>
       </c>
       <c r="B287">
         <v>0</v>
@@ -4092,11 +5052,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="288">
-      <c r="A288" t="inlineStr">
-        <is>
-          <t>test_784</t>
-        </is>
+    <row r="288" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A288" t="s">
+        <v>289</v>
       </c>
       <c r="B288">
         <v>0</v>
@@ -4105,11 +5063,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="289">
-      <c r="A289" t="inlineStr">
-        <is>
-          <t>test_785</t>
-        </is>
+    <row r="289" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A289" t="s">
+        <v>290</v>
       </c>
       <c r="B289">
         <v>0</v>
@@ -4118,11 +5074,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="290">
-      <c r="A290" t="inlineStr">
-        <is>
-          <t>test_786</t>
-        </is>
+    <row r="290" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A290" t="s">
+        <v>291</v>
       </c>
       <c r="B290">
         <v>0</v>
@@ -4131,11 +5085,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="291">
-      <c r="A291" t="inlineStr">
-        <is>
-          <t>test_787</t>
-        </is>
+    <row r="291" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A291" t="s">
+        <v>292</v>
       </c>
       <c r="B291">
         <v>13</v>
@@ -4144,11 +5096,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="292">
-      <c r="A292" t="inlineStr">
-        <is>
-          <t>test_788</t>
-        </is>
+    <row r="292" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A292" t="s">
+        <v>293</v>
       </c>
       <c r="B292">
         <v>20</v>
@@ -4157,11 +5107,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="293">
-      <c r="A293" t="inlineStr">
-        <is>
-          <t>test_789</t>
-        </is>
+    <row r="293" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A293" t="s">
+        <v>294</v>
       </c>
       <c r="B293">
         <v>0</v>
@@ -4170,11 +5118,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="294">
-      <c r="A294" t="inlineStr">
-        <is>
-          <t>test_790</t>
-        </is>
+    <row r="294" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A294" t="s">
+        <v>295</v>
       </c>
       <c r="B294">
         <v>1</v>
@@ -4183,11 +5129,9 @@
         <v>19</v>
       </c>
     </row>
-    <row r="295">
-      <c r="A295" t="inlineStr">
-        <is>
-          <t>test_791</t>
-        </is>
+    <row r="295" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A295" t="s">
+        <v>296</v>
       </c>
       <c r="B295">
         <v>0</v>
@@ -4196,11 +5140,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="296">
-      <c r="A296" t="inlineStr">
-        <is>
-          <t>test_792</t>
-        </is>
+    <row r="296" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A296" t="s">
+        <v>297</v>
       </c>
       <c r="B296">
         <v>20</v>
@@ -4209,11 +5151,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="297">
-      <c r="A297" t="inlineStr">
-        <is>
-          <t>test_793</t>
-        </is>
+    <row r="297" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A297" t="s">
+        <v>298</v>
       </c>
       <c r="B297">
         <v>0</v>
@@ -4222,11 +5162,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="298">
-      <c r="A298" t="inlineStr">
-        <is>
-          <t>test_794</t>
-        </is>
+    <row r="298" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A298" t="s">
+        <v>299</v>
       </c>
       <c r="B298">
         <v>20</v>
@@ -4235,11 +5173,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="299">
-      <c r="A299" t="inlineStr">
-        <is>
-          <t>test_795</t>
-        </is>
+    <row r="299" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A299" t="s">
+        <v>300</v>
       </c>
       <c r="B299">
         <v>0</v>
@@ -4248,11 +5184,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="300">
-      <c r="A300" t="inlineStr">
-        <is>
-          <t>test_796</t>
-        </is>
+    <row r="300" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A300" t="s">
+        <v>301</v>
       </c>
       <c r="B300">
         <v>20</v>
@@ -4261,11 +5195,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="301">
-      <c r="A301" t="inlineStr">
-        <is>
-          <t>test_797</t>
-        </is>
+    <row r="301" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A301" t="s">
+        <v>302</v>
       </c>
       <c r="B301">
         <v>0</v>
@@ -4274,11 +5206,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="302">
-      <c r="A302" t="inlineStr">
-        <is>
-          <t>test_798</t>
-        </is>
+    <row r="302" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A302" t="s">
+        <v>303</v>
       </c>
       <c r="B302">
         <v>2</v>
@@ -4287,11 +5217,9 @@
         <v>18</v>
       </c>
     </row>
-    <row r="303">
-      <c r="A303" t="inlineStr">
-        <is>
-          <t>test_799</t>
-        </is>
+    <row r="303" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A303" t="s">
+        <v>304</v>
       </c>
       <c r="B303">
         <v>2</v>
@@ -4300,11 +5228,9 @@
         <v>18</v>
       </c>
     </row>
-    <row r="304">
-      <c r="A304" t="inlineStr">
-        <is>
-          <t>test_800</t>
-        </is>
+    <row r="304" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A304" t="s">
+        <v>305</v>
       </c>
       <c r="B304">
         <v>0</v>
@@ -4313,11 +5239,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="305">
-      <c r="A305" t="inlineStr">
-        <is>
-          <t>test_801</t>
-        </is>
+    <row r="305" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A305" t="s">
+        <v>306</v>
       </c>
       <c r="B305">
         <v>0</v>
@@ -4326,11 +5250,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="306">
-      <c r="A306" t="inlineStr">
-        <is>
-          <t>test_802</t>
-        </is>
+    <row r="306" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A306" t="s">
+        <v>307</v>
       </c>
       <c r="B306">
         <v>20</v>
@@ -4339,11 +5261,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="307">
-      <c r="A307" t="inlineStr">
-        <is>
-          <t>test_803</t>
-        </is>
+    <row r="307" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A307" t="s">
+        <v>308</v>
       </c>
       <c r="B307">
         <v>0</v>
@@ -4352,11 +5272,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="308">
-      <c r="A308" t="inlineStr">
-        <is>
-          <t>test_804</t>
-        </is>
+    <row r="308" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A308" t="s">
+        <v>309</v>
       </c>
       <c r="B308">
         <v>20</v>
@@ -4365,11 +5283,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="309">
-      <c r="A309" t="inlineStr">
-        <is>
-          <t>test_805</t>
-        </is>
+    <row r="309" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A309" t="s">
+        <v>310</v>
       </c>
       <c r="B309">
         <v>0</v>
@@ -4378,11 +5294,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="310">
-      <c r="A310" t="inlineStr">
-        <is>
-          <t>test_806</t>
-        </is>
+    <row r="310" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A310" t="s">
+        <v>311</v>
       </c>
       <c r="B310">
         <v>20</v>
@@ -4391,11 +5305,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="311">
-      <c r="A311" t="inlineStr">
-        <is>
-          <t>test_807</t>
-        </is>
+    <row r="311" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A311" t="s">
+        <v>312</v>
       </c>
       <c r="B311">
         <v>0</v>
@@ -4404,11 +5316,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="312">
-      <c r="A312" t="inlineStr">
-        <is>
-          <t>test_808</t>
-        </is>
+    <row r="312" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A312" t="s">
+        <v>313</v>
       </c>
       <c r="B312">
         <v>0</v>
@@ -4417,11 +5327,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="313">
-      <c r="A313" t="inlineStr">
-        <is>
-          <t>test_809</t>
-        </is>
+    <row r="313" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A313" t="s">
+        <v>314</v>
       </c>
       <c r="B313">
         <v>0</v>
@@ -4430,11 +5338,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="314">
-      <c r="A314" t="inlineStr">
-        <is>
-          <t>test_810</t>
-        </is>
+    <row r="314" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A314" t="s">
+        <v>315</v>
       </c>
       <c r="B314">
         <v>0</v>
@@ -4443,11 +5349,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="315">
-      <c r="A315" t="inlineStr">
-        <is>
-          <t>test_811</t>
-        </is>
+    <row r="315" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A315" t="s">
+        <v>316</v>
       </c>
       <c r="B315">
         <v>0</v>
@@ -4456,11 +5360,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="316">
-      <c r="A316" t="inlineStr">
-        <is>
-          <t>test_812</t>
-        </is>
+    <row r="316" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A316" t="s">
+        <v>317</v>
       </c>
       <c r="B316">
         <v>0</v>
@@ -4469,11 +5371,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="317">
-      <c r="A317" t="inlineStr">
-        <is>
-          <t>test_813</t>
-        </is>
+    <row r="317" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A317" t="s">
+        <v>318</v>
       </c>
       <c r="B317">
         <v>0</v>
@@ -4482,11 +5382,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="318">
-      <c r="A318" t="inlineStr">
-        <is>
-          <t>test_814</t>
-        </is>
+    <row r="318" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A318" t="s">
+        <v>319</v>
       </c>
       <c r="B318">
         <v>0</v>
@@ -4495,11 +5393,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="319">
-      <c r="A319" t="inlineStr">
-        <is>
-          <t>test_815</t>
-        </is>
+    <row r="319" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A319" t="s">
+        <v>320</v>
       </c>
       <c r="B319">
         <v>0</v>
@@ -4508,11 +5404,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="320">
-      <c r="A320" t="inlineStr">
-        <is>
-          <t>test_816</t>
-        </is>
+    <row r="320" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A320" t="s">
+        <v>321</v>
       </c>
       <c r="B320">
         <v>0</v>
@@ -4521,11 +5415,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="321">
-      <c r="A321" t="inlineStr">
-        <is>
-          <t>test_817</t>
-        </is>
+    <row r="321" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A321" t="s">
+        <v>322</v>
       </c>
       <c r="B321">
         <v>0</v>
@@ -4534,11 +5426,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="322">
-      <c r="A322" t="inlineStr">
-        <is>
-          <t>test_818</t>
-        </is>
+    <row r="322" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A322" t="s">
+        <v>323</v>
       </c>
       <c r="B322">
         <v>20</v>
@@ -4547,11 +5437,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="323">
-      <c r="A323" t="inlineStr">
-        <is>
-          <t>test_819</t>
-        </is>
+    <row r="323" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A323" t="s">
+        <v>324</v>
       </c>
       <c r="B323">
         <v>0</v>
@@ -4560,11 +5448,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="324">
-      <c r="A324" t="inlineStr">
-        <is>
-          <t>test_820</t>
-        </is>
+    <row r="324" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A324" t="s">
+        <v>325</v>
       </c>
       <c r="B324">
         <v>20</v>
@@ -4573,11 +5459,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="325">
-      <c r="A325" t="inlineStr">
-        <is>
-          <t>test_821</t>
-        </is>
+    <row r="325" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A325" t="s">
+        <v>326</v>
       </c>
       <c r="B325">
         <v>0</v>
@@ -4586,11 +5470,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="326">
-      <c r="A326" t="inlineStr">
-        <is>
-          <t>test_822</t>
-        </is>
+    <row r="326" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A326" t="s">
+        <v>327</v>
       </c>
       <c r="B326">
         <v>20</v>
@@ -4599,11 +5481,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="327">
-      <c r="A327" t="inlineStr">
-        <is>
-          <t>test_823</t>
-        </is>
+    <row r="327" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A327" t="s">
+        <v>328</v>
       </c>
       <c r="B327">
         <v>0</v>
@@ -4612,11 +5492,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="328">
-      <c r="A328" t="inlineStr">
-        <is>
-          <t>test_824</t>
-        </is>
+    <row r="328" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A328" t="s">
+        <v>329</v>
       </c>
       <c r="B328">
         <v>0</v>
@@ -4625,11 +5503,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="329">
-      <c r="A329" t="inlineStr">
-        <is>
-          <t>test_825</t>
-        </is>
+    <row r="329" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A329" t="s">
+        <v>330</v>
       </c>
       <c r="B329">
         <v>0</v>
@@ -4638,11 +5514,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="330">
-      <c r="A330" t="inlineStr">
-        <is>
-          <t>test_826</t>
-        </is>
+    <row r="330" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A330" t="s">
+        <v>331</v>
       </c>
       <c r="B330">
         <v>0</v>
@@ -4651,11 +5525,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="331">
-      <c r="A331" t="inlineStr">
-        <is>
-          <t>test_827</t>
-        </is>
+    <row r="331" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A331" t="s">
+        <v>332</v>
       </c>
       <c r="B331">
         <v>0</v>
@@ -4664,11 +5536,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="332">
-      <c r="A332" t="inlineStr">
-        <is>
-          <t>test_828</t>
-        </is>
+    <row r="332" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A332" t="s">
+        <v>333</v>
       </c>
       <c r="B332">
         <v>20</v>
@@ -4677,11 +5547,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="333">
-      <c r="A333" t="inlineStr">
-        <is>
-          <t>test_829</t>
-        </is>
+    <row r="333" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A333" t="s">
+        <v>334</v>
       </c>
       <c r="B333">
         <v>0</v>
@@ -4690,11 +5558,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="334">
-      <c r="A334" t="inlineStr">
-        <is>
-          <t>test_830</t>
-        </is>
+    <row r="334" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A334" t="s">
+        <v>335</v>
       </c>
       <c r="B334">
         <v>0</v>
@@ -4703,11 +5569,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="335">
-      <c r="A335" t="inlineStr">
-        <is>
-          <t>test_831</t>
-        </is>
+    <row r="335" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A335" t="s">
+        <v>336</v>
       </c>
       <c r="B335">
         <v>0</v>
@@ -4716,11 +5580,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="336">
-      <c r="A336" t="inlineStr">
-        <is>
-          <t>test_832</t>
-        </is>
+    <row r="336" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A336" t="s">
+        <v>337</v>
       </c>
       <c r="B336">
         <v>0</v>
@@ -4729,11 +5591,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="337">
-      <c r="A337" t="inlineStr">
-        <is>
-          <t>test_833</t>
-        </is>
+    <row r="337" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A337" t="s">
+        <v>338</v>
       </c>
       <c r="B337">
         <v>0</v>
@@ -4742,11 +5602,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="338">
-      <c r="A338" t="inlineStr">
-        <is>
-          <t>test_834</t>
-        </is>
+    <row r="338" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A338" t="s">
+        <v>339</v>
       </c>
       <c r="B338">
         <v>0</v>
@@ -4755,11 +5613,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="339">
-      <c r="A339" t="inlineStr">
-        <is>
-          <t>test_835</t>
-        </is>
+    <row r="339" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A339" t="s">
+        <v>340</v>
       </c>
       <c r="B339">
         <v>0</v>
@@ -4768,11 +5624,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="340">
-      <c r="A340" t="inlineStr">
-        <is>
-          <t>test_836</t>
-        </is>
+    <row r="340" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A340" t="s">
+        <v>341</v>
       </c>
       <c r="B340">
         <v>0</v>
@@ -4781,11 +5635,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="341">
-      <c r="A341" t="inlineStr">
-        <is>
-          <t>test_837</t>
-        </is>
+    <row r="341" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A341" t="s">
+        <v>342</v>
       </c>
       <c r="B341">
         <v>0</v>
@@ -4794,11 +5646,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="342">
-      <c r="A342" t="inlineStr">
-        <is>
-          <t>test_838</t>
-        </is>
+    <row r="342" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A342" t="s">
+        <v>343</v>
       </c>
       <c r="B342">
         <v>0</v>
@@ -4807,11 +5657,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="343">
-      <c r="A343" t="inlineStr">
-        <is>
-          <t>test_839</t>
-        </is>
+    <row r="343" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A343" t="s">
+        <v>344</v>
       </c>
       <c r="B343">
         <v>0</v>
@@ -4820,11 +5668,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="344">
-      <c r="A344" t="inlineStr">
-        <is>
-          <t>test_840</t>
-        </is>
+    <row r="344" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A344" t="s">
+        <v>345</v>
       </c>
       <c r="B344">
         <v>20</v>
@@ -4833,11 +5679,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="345">
-      <c r="A345" t="inlineStr">
-        <is>
-          <t>test_841</t>
-        </is>
+    <row r="345" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A345" t="s">
+        <v>346</v>
       </c>
       <c r="B345">
         <v>0</v>
@@ -4846,11 +5690,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="346">
-      <c r="A346" t="inlineStr">
-        <is>
-          <t>test_842</t>
-        </is>
+    <row r="346" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A346" t="s">
+        <v>347</v>
       </c>
       <c r="B346">
         <v>20</v>
@@ -4859,11 +5701,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="347">
-      <c r="A347" t="inlineStr">
-        <is>
-          <t>test_843</t>
-        </is>
+    <row r="347" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A347" t="s">
+        <v>348</v>
       </c>
       <c r="B347">
         <v>0</v>
@@ -4872,11 +5712,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="348">
-      <c r="A348" t="inlineStr">
-        <is>
-          <t>test_844</t>
-        </is>
+    <row r="348" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A348" t="s">
+        <v>349</v>
       </c>
       <c r="B348">
         <v>0</v>
@@ -4885,11 +5723,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="349">
-      <c r="A349" t="inlineStr">
-        <is>
-          <t>test_845</t>
-        </is>
+    <row r="349" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A349" t="s">
+        <v>350</v>
       </c>
       <c r="B349">
         <v>0</v>
@@ -4898,11 +5734,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="350">
-      <c r="A350" t="inlineStr">
-        <is>
-          <t>test_846</t>
-        </is>
+    <row r="350" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A350" t="s">
+        <v>351</v>
       </c>
       <c r="B350">
         <v>20</v>
@@ -4911,11 +5745,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="351">
-      <c r="A351" t="inlineStr">
-        <is>
-          <t>test_847</t>
-        </is>
+    <row r="351" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A351" t="s">
+        <v>352</v>
       </c>
       <c r="B351">
         <v>0</v>
@@ -4924,11 +5756,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="352">
-      <c r="A352" t="inlineStr">
-        <is>
-          <t>test_848</t>
-        </is>
+    <row r="352" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A352" t="s">
+        <v>353</v>
       </c>
       <c r="B352">
         <v>20</v>
@@ -4937,11 +5767,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="353">
-      <c r="A353" t="inlineStr">
-        <is>
-          <t>test_849</t>
-        </is>
+    <row r="353" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A353" t="s">
+        <v>354</v>
       </c>
       <c r="B353">
         <v>0</v>
@@ -4950,11 +5778,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="354">
-      <c r="A354" t="inlineStr">
-        <is>
-          <t>test_850</t>
-        </is>
+    <row r="354" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A354" t="s">
+        <v>355</v>
       </c>
       <c r="B354">
         <v>20</v>
@@ -4963,11 +5789,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="355">
-      <c r="A355" t="inlineStr">
-        <is>
-          <t>test_851</t>
-        </is>
+    <row r="355" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A355" t="s">
+        <v>356</v>
       </c>
       <c r="B355">
         <v>0</v>
@@ -4976,11 +5800,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="356">
-      <c r="A356" t="inlineStr">
-        <is>
-          <t>test_852</t>
-        </is>
+    <row r="356" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A356" t="s">
+        <v>357</v>
       </c>
       <c r="B356">
         <v>0</v>
@@ -4989,11 +5811,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="357">
-      <c r="A357" t="inlineStr">
-        <is>
-          <t>test_853</t>
-        </is>
+    <row r="357" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A357" t="s">
+        <v>358</v>
       </c>
       <c r="B357">
         <v>0</v>
@@ -5002,11 +5822,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="358">
-      <c r="A358" t="inlineStr">
-        <is>
-          <t>test_854</t>
-        </is>
+    <row r="358" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A358" t="s">
+        <v>359</v>
       </c>
       <c r="B358">
         <v>20</v>
@@ -5015,11 +5833,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="359">
-      <c r="A359" t="inlineStr">
-        <is>
-          <t>test_855</t>
-        </is>
+    <row r="359" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A359" t="s">
+        <v>360</v>
       </c>
       <c r="B359">
         <v>0</v>
@@ -5028,11 +5844,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="360">
-      <c r="A360" t="inlineStr">
-        <is>
-          <t>test_856</t>
-        </is>
+    <row r="360" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A360" t="s">
+        <v>361</v>
       </c>
       <c r="B360">
         <v>0</v>
@@ -5041,11 +5855,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="361">
-      <c r="A361" t="inlineStr">
-        <is>
-          <t>test_857</t>
-        </is>
+    <row r="361" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A361" t="s">
+        <v>362</v>
       </c>
       <c r="B361">
         <v>0</v>
@@ -5054,11 +5866,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="362">
-      <c r="A362" t="inlineStr">
-        <is>
-          <t>test_858</t>
-        </is>
+    <row r="362" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A362" t="s">
+        <v>363</v>
       </c>
       <c r="B362">
         <v>20</v>
@@ -5067,11 +5877,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="363">
-      <c r="A363" t="inlineStr">
-        <is>
-          <t>test_859</t>
-        </is>
+    <row r="363" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A363" t="s">
+        <v>364</v>
       </c>
       <c r="B363">
         <v>0</v>
@@ -5080,11 +5888,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="364">
-      <c r="A364" t="inlineStr">
-        <is>
-          <t>test_860</t>
-        </is>
+    <row r="364" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A364" t="s">
+        <v>365</v>
       </c>
       <c r="B364">
         <v>20</v>
@@ -5093,11 +5899,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="365">
-      <c r="A365" t="inlineStr">
-        <is>
-          <t>test_861</t>
-        </is>
+    <row r="365" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A365" t="s">
+        <v>366</v>
       </c>
       <c r="B365">
         <v>0</v>
@@ -5106,11 +5910,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="366">
-      <c r="A366" t="inlineStr">
-        <is>
-          <t>test_862</t>
-        </is>
+    <row r="366" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A366" t="s">
+        <v>367</v>
       </c>
       <c r="B366">
         <v>0</v>
@@ -5119,11 +5921,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="367">
-      <c r="A367" t="inlineStr">
-        <is>
-          <t>test_863</t>
-        </is>
+    <row r="367" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A367" t="s">
+        <v>368</v>
       </c>
       <c r="B367">
         <v>0</v>
@@ -5132,11 +5932,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="368">
-      <c r="A368" t="inlineStr">
-        <is>
-          <t>test_864</t>
-        </is>
+    <row r="368" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A368" t="s">
+        <v>369</v>
       </c>
       <c r="B368">
         <v>0</v>
@@ -5145,11 +5943,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="369">
-      <c r="A369" t="inlineStr">
-        <is>
-          <t>test_865</t>
-        </is>
+    <row r="369" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A369" t="s">
+        <v>370</v>
       </c>
       <c r="B369">
         <v>0</v>
@@ -5158,11 +5954,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="370">
-      <c r="A370" t="inlineStr">
-        <is>
-          <t>test_866</t>
-        </is>
+    <row r="370" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A370" t="s">
+        <v>371</v>
       </c>
       <c r="B370">
         <v>20</v>
@@ -5171,11 +5965,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="371">
-      <c r="A371" t="inlineStr">
-        <is>
-          <t>test_867</t>
-        </is>
+    <row r="371" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A371" t="s">
+        <v>372</v>
       </c>
       <c r="B371">
         <v>0</v>
@@ -5184,11 +5976,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="372">
-      <c r="A372" t="inlineStr">
-        <is>
-          <t>test_868</t>
-        </is>
+    <row r="372" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A372" t="s">
+        <v>373</v>
       </c>
       <c r="B372">
         <v>0</v>
@@ -5197,11 +5987,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="373">
-      <c r="A373" t="inlineStr">
-        <is>
-          <t>test_869</t>
-        </is>
+    <row r="373" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A373" t="s">
+        <v>374</v>
       </c>
       <c r="B373">
         <v>0</v>
@@ -5210,11 +5998,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="374">
-      <c r="A374" t="inlineStr">
-        <is>
-          <t>test_870</t>
-        </is>
+    <row r="374" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A374" t="s">
+        <v>375</v>
       </c>
       <c r="B374">
         <v>0</v>
@@ -5223,11 +6009,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="375">
-      <c r="A375" t="inlineStr">
-        <is>
-          <t>test_871</t>
-        </is>
+    <row r="375" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A375" t="s">
+        <v>376</v>
       </c>
       <c r="B375">
         <v>0</v>
@@ -5236,11 +6020,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="376">
-      <c r="A376" t="inlineStr">
-        <is>
-          <t>test_872</t>
-        </is>
+    <row r="376" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A376" t="s">
+        <v>377</v>
       </c>
       <c r="B376">
         <v>0</v>
@@ -5249,11 +6031,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="377">
-      <c r="A377" t="inlineStr">
-        <is>
-          <t>test_873</t>
-        </is>
+    <row r="377" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A377" t="s">
+        <v>378</v>
       </c>
       <c r="B377">
         <v>0</v>
@@ -5262,11 +6042,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="378">
-      <c r="A378" t="inlineStr">
-        <is>
-          <t>test_874</t>
-        </is>
+    <row r="378" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A378" t="s">
+        <v>379</v>
       </c>
       <c r="B378">
         <v>0</v>
@@ -5275,11 +6053,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="379">
-      <c r="A379" t="inlineStr">
-        <is>
-          <t>test_875</t>
-        </is>
+    <row r="379" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A379" t="s">
+        <v>380</v>
       </c>
       <c r="B379">
         <v>0</v>
@@ -5288,11 +6064,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="380">
-      <c r="A380" t="inlineStr">
-        <is>
-          <t>test_876</t>
-        </is>
+    <row r="380" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A380" t="s">
+        <v>381</v>
       </c>
       <c r="B380">
         <v>0</v>
@@ -5301,11 +6075,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="381">
-      <c r="A381" t="inlineStr">
-        <is>
-          <t>test_877</t>
-        </is>
+    <row r="381" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A381" t="s">
+        <v>382</v>
       </c>
       <c r="B381">
         <v>0</v>
@@ -5314,11 +6086,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="382">
-      <c r="A382" t="inlineStr">
-        <is>
-          <t>test_878</t>
-        </is>
+    <row r="382" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A382" t="s">
+        <v>383</v>
       </c>
       <c r="B382">
         <v>0</v>
@@ -5327,11 +6097,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="383">
-      <c r="A383" t="inlineStr">
-        <is>
-          <t>test_879</t>
-        </is>
+    <row r="383" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A383" t="s">
+        <v>384</v>
       </c>
       <c r="B383">
         <v>0</v>
@@ -5340,11 +6108,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="384">
-      <c r="A384" t="inlineStr">
-        <is>
-          <t>test_880</t>
-        </is>
+    <row r="384" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A384" t="s">
+        <v>385</v>
       </c>
       <c r="B384">
         <v>0</v>
@@ -5353,11 +6119,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="385">
-      <c r="A385" t="inlineStr">
-        <is>
-          <t>test_881</t>
-        </is>
+    <row r="385" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A385" t="s">
+        <v>386</v>
       </c>
       <c r="B385">
         <v>0</v>
@@ -5366,11 +6130,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="386">
-      <c r="A386" t="inlineStr">
-        <is>
-          <t>test_882</t>
-        </is>
+    <row r="386" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A386" t="s">
+        <v>387</v>
       </c>
       <c r="B386">
         <v>0</v>
@@ -5379,11 +6141,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="387">
-      <c r="A387" t="inlineStr">
-        <is>
-          <t>test_883</t>
-        </is>
+    <row r="387" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A387" t="s">
+        <v>388</v>
       </c>
       <c r="B387">
         <v>0</v>
@@ -5392,11 +6152,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="388">
-      <c r="A388" t="inlineStr">
-        <is>
-          <t>test_884</t>
-        </is>
+    <row r="388" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A388" t="s">
+        <v>389</v>
       </c>
       <c r="B388">
         <v>0</v>
@@ -5405,11 +6163,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="389">
-      <c r="A389" t="inlineStr">
-        <is>
-          <t>test_885</t>
-        </is>
+    <row r="389" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A389" t="s">
+        <v>390</v>
       </c>
       <c r="B389">
         <v>0</v>
@@ -5418,11 +6174,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="390">
-      <c r="A390" t="inlineStr">
-        <is>
-          <t>test_886</t>
-        </is>
+    <row r="390" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A390" t="s">
+        <v>391</v>
       </c>
       <c r="B390">
         <v>0</v>
@@ -5431,11 +6185,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="391">
-      <c r="A391" t="inlineStr">
-        <is>
-          <t>test_887</t>
-        </is>
+    <row r="391" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A391" t="s">
+        <v>392</v>
       </c>
       <c r="B391">
         <v>0</v>
@@ -5444,11 +6196,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="392">
-      <c r="A392" t="inlineStr">
-        <is>
-          <t>test_888</t>
-        </is>
+    <row r="392" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A392" t="s">
+        <v>393</v>
       </c>
       <c r="B392">
         <v>0</v>
@@ -5457,11 +6207,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="393">
-      <c r="A393" t="inlineStr">
-        <is>
-          <t>test_889</t>
-        </is>
+    <row r="393" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A393" t="s">
+        <v>394</v>
       </c>
       <c r="B393">
         <v>0</v>
@@ -5470,11 +6218,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="394">
-      <c r="A394" t="inlineStr">
-        <is>
-          <t>test_890</t>
-        </is>
+    <row r="394" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A394" t="s">
+        <v>395</v>
       </c>
       <c r="B394">
         <v>20</v>
@@ -5483,11 +6229,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="395">
-      <c r="A395" t="inlineStr">
-        <is>
-          <t>test_891</t>
-        </is>
+    <row r="395" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A395" t="s">
+        <v>396</v>
       </c>
       <c r="B395">
         <v>0</v>
@@ -5496,11 +6240,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="396">
-      <c r="A396" t="inlineStr">
-        <is>
-          <t>test_892</t>
-        </is>
+    <row r="396" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A396" t="s">
+        <v>397</v>
       </c>
       <c r="B396">
         <v>0</v>
@@ -5509,11 +6251,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="397">
-      <c r="A397" t="inlineStr">
-        <is>
-          <t>test_893</t>
-        </is>
+    <row r="397" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A397" t="s">
+        <v>398</v>
       </c>
       <c r="B397">
         <v>0</v>
@@ -5522,11 +6262,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="398">
-      <c r="A398" t="inlineStr">
-        <is>
-          <t>test_894</t>
-        </is>
+    <row r="398" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A398" t="s">
+        <v>399</v>
       </c>
       <c r="B398">
         <v>20</v>
@@ -5535,11 +6273,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="399">
-      <c r="A399" t="inlineStr">
-        <is>
-          <t>test_895</t>
-        </is>
+    <row r="399" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A399" t="s">
+        <v>400</v>
       </c>
       <c r="B399">
         <v>0</v>
@@ -5548,11 +6284,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="400">
-      <c r="A400" t="inlineStr">
-        <is>
-          <t>test_896</t>
-        </is>
+    <row r="400" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A400" t="s">
+        <v>401</v>
       </c>
       <c r="B400">
         <v>20</v>
@@ -5561,11 +6295,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="401">
-      <c r="A401" t="inlineStr">
-        <is>
-          <t>test_897</t>
-        </is>
+    <row r="401" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A401" t="s">
+        <v>402</v>
       </c>
       <c r="B401">
         <v>0</v>
@@ -5574,11 +6306,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="402">
-      <c r="A402" t="inlineStr">
-        <is>
-          <t>test_898</t>
-        </is>
+    <row r="402" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A402" t="s">
+        <v>403</v>
       </c>
       <c r="B402">
         <v>0</v>
@@ -5587,11 +6317,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="403">
-      <c r="A403" t="inlineStr">
-        <is>
-          <t>test_899</t>
-        </is>
+    <row r="403" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A403" t="s">
+        <v>404</v>
       </c>
       <c r="B403">
         <v>0</v>
@@ -5600,11 +6328,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="404">
-      <c r="A404" t="inlineStr">
-        <is>
-          <t>test_900</t>
-        </is>
+    <row r="404" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A404" t="s">
+        <v>405</v>
       </c>
       <c r="B404">
         <v>0</v>
@@ -5613,11 +6339,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="405">
-      <c r="A405" t="inlineStr">
-        <is>
-          <t>test_901</t>
-        </is>
+    <row r="405" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A405" t="s">
+        <v>406</v>
       </c>
       <c r="B405">
         <v>0</v>
@@ -5626,11 +6350,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="406">
-      <c r="A406" t="inlineStr">
-        <is>
-          <t>test_902</t>
-        </is>
+    <row r="406" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A406" t="s">
+        <v>407</v>
       </c>
       <c r="B406">
         <v>0</v>
@@ -5639,11 +6361,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="407">
-      <c r="A407" t="inlineStr">
-        <is>
-          <t>test_903</t>
-        </is>
+    <row r="407" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A407" t="s">
+        <v>408</v>
       </c>
       <c r="B407">
         <v>0</v>
@@ -5652,11 +6372,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="408">
-      <c r="A408" t="inlineStr">
-        <is>
-          <t>test_904</t>
-        </is>
+    <row r="408" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A408" t="s">
+        <v>409</v>
       </c>
       <c r="B408">
         <v>0</v>
@@ -5665,11 +6383,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="409">
-      <c r="A409" t="inlineStr">
-        <is>
-          <t>test_905</t>
-        </is>
+    <row r="409" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A409" t="s">
+        <v>410</v>
       </c>
       <c r="B409">
         <v>0</v>
@@ -5678,11 +6394,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="410">
-      <c r="A410" t="inlineStr">
-        <is>
-          <t>test_906</t>
-        </is>
+    <row r="410" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A410" t="s">
+        <v>411</v>
       </c>
       <c r="B410">
         <v>0</v>
@@ -5691,11 +6405,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="411">
-      <c r="A411" t="inlineStr">
-        <is>
-          <t>test_907</t>
-        </is>
+    <row r="411" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A411" t="s">
+        <v>412</v>
       </c>
       <c r="B411">
         <v>0</v>
@@ -5704,11 +6416,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="412">
-      <c r="A412" t="inlineStr">
-        <is>
-          <t>test_908</t>
-        </is>
+    <row r="412" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A412" t="s">
+        <v>413</v>
       </c>
       <c r="B412">
         <v>20</v>
@@ -5717,11 +6427,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="413">
-      <c r="A413" t="inlineStr">
-        <is>
-          <t>test_909</t>
-        </is>
+    <row r="413" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A413" t="s">
+        <v>414</v>
       </c>
       <c r="B413">
         <v>0</v>
@@ -5730,11 +6438,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="414">
-      <c r="A414" t="inlineStr">
-        <is>
-          <t>test_910</t>
-        </is>
+    <row r="414" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A414" t="s">
+        <v>415</v>
       </c>
       <c r="B414">
         <v>20</v>
@@ -5743,11 +6449,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="415">
-      <c r="A415" t="inlineStr">
-        <is>
-          <t>test_911</t>
-        </is>
+    <row r="415" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A415" t="s">
+        <v>416</v>
       </c>
       <c r="B415">
         <v>0</v>
@@ -5756,11 +6460,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="416">
-      <c r="A416" t="inlineStr">
-        <is>
-          <t>test_912</t>
-        </is>
+    <row r="416" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A416" t="s">
+        <v>417</v>
       </c>
       <c r="B416">
         <v>20</v>
@@ -5769,11 +6471,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="417">
-      <c r="A417" t="inlineStr">
-        <is>
-          <t>test_913</t>
-        </is>
+    <row r="417" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A417" t="s">
+        <v>418</v>
       </c>
       <c r="B417">
         <v>0</v>
@@ -5782,11 +6482,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="418">
-      <c r="A418" t="inlineStr">
-        <is>
-          <t>test_914</t>
-        </is>
+    <row r="418" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A418" t="s">
+        <v>419</v>
       </c>
       <c r="B418">
         <v>0</v>
@@ -5795,11 +6493,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="419">
-      <c r="A419" t="inlineStr">
-        <is>
-          <t>test_915</t>
-        </is>
+    <row r="419" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A419" t="s">
+        <v>420</v>
       </c>
       <c r="B419">
         <v>0</v>
@@ -5808,11 +6504,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="420">
-      <c r="A420" t="inlineStr">
-        <is>
-          <t>test_916</t>
-        </is>
+    <row r="420" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A420" t="s">
+        <v>421</v>
       </c>
       <c r="B420">
         <v>20</v>
@@ -5821,11 +6515,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="421">
-      <c r="A421" t="inlineStr">
-        <is>
-          <t>test_917</t>
-        </is>
+    <row r="421" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A421" t="s">
+        <v>422</v>
       </c>
       <c r="B421">
         <v>0</v>
@@ -5834,11 +6526,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="422">
-      <c r="A422" t="inlineStr">
-        <is>
-          <t>test_918</t>
-        </is>
+    <row r="422" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A422" t="s">
+        <v>423</v>
       </c>
       <c r="B422">
         <v>20</v>
@@ -5847,11 +6537,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="423">
-      <c r="A423" t="inlineStr">
-        <is>
-          <t>test_919</t>
-        </is>
+    <row r="423" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A423" t="s">
+        <v>424</v>
       </c>
       <c r="B423">
         <v>0</v>
@@ -5860,11 +6548,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="424">
-      <c r="A424" t="inlineStr">
-        <is>
-          <t>test_920</t>
-        </is>
+    <row r="424" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A424" t="s">
+        <v>425</v>
       </c>
       <c r="B424">
         <v>10</v>
@@ -5873,11 +6559,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="425">
-      <c r="A425" t="inlineStr">
-        <is>
-          <t>test_921</t>
-        </is>
+    <row r="425" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A425" t="s">
+        <v>426</v>
       </c>
       <c r="B425">
         <v>0</v>
@@ -5886,11 +6570,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="426">
-      <c r="A426" t="inlineStr">
-        <is>
-          <t>test_922</t>
-        </is>
+    <row r="426" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A426" t="s">
+        <v>427</v>
       </c>
       <c r="B426">
         <v>20</v>
@@ -5899,11 +6581,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="427">
-      <c r="A427" t="inlineStr">
-        <is>
-          <t>test_923</t>
-        </is>
+    <row r="427" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A427" t="s">
+        <v>428</v>
       </c>
       <c r="B427">
         <v>0</v>
@@ -5912,11 +6592,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="428">
-      <c r="A428" t="inlineStr">
-        <is>
-          <t>test_924</t>
-        </is>
+    <row r="428" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A428" t="s">
+        <v>429</v>
       </c>
       <c r="B428">
         <v>20</v>
@@ -5925,11 +6603,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="429">
-      <c r="A429" t="inlineStr">
-        <is>
-          <t>test_925</t>
-        </is>
+    <row r="429" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A429" t="s">
+        <v>430</v>
       </c>
       <c r="B429">
         <v>0</v>
@@ -5938,11 +6614,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="430">
-      <c r="A430" t="inlineStr">
-        <is>
-          <t>test_926</t>
-        </is>
+    <row r="430" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A430" t="s">
+        <v>431</v>
       </c>
       <c r="B430">
         <v>0</v>
@@ -5951,11 +6625,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="431">
-      <c r="A431" t="inlineStr">
-        <is>
-          <t>test_927</t>
-        </is>
+    <row r="431" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A431" t="s">
+        <v>432</v>
       </c>
       <c r="B431">
         <v>20</v>
@@ -5964,11 +6636,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="432">
-      <c r="A432" t="inlineStr">
-        <is>
-          <t>test_928</t>
-        </is>
+    <row r="432" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A432" t="s">
+        <v>433</v>
       </c>
       <c r="B432">
         <v>0</v>
@@ -5977,11 +6647,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="433">
-      <c r="A433" t="inlineStr">
-        <is>
-          <t>test_929</t>
-        </is>
+    <row r="433" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A433" t="s">
+        <v>434</v>
       </c>
       <c r="B433">
         <v>0</v>
@@ -5990,11 +6658,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="434">
-      <c r="A434" t="inlineStr">
-        <is>
-          <t>test_930</t>
-        </is>
+    <row r="434" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A434" t="s">
+        <v>435</v>
       </c>
       <c r="B434">
         <v>20</v>
@@ -6003,11 +6669,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="435">
-      <c r="A435" t="inlineStr">
-        <is>
-          <t>test_931</t>
-        </is>
+    <row r="435" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A435" t="s">
+        <v>436</v>
       </c>
       <c r="B435">
         <v>0</v>
@@ -6016,11 +6680,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="436">
-      <c r="A436" t="inlineStr">
-        <is>
-          <t>test_932</t>
-        </is>
+    <row r="436" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A436" t="s">
+        <v>437</v>
       </c>
       <c r="B436">
         <v>0</v>
@@ -6029,11 +6691,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="437">
-      <c r="A437" t="inlineStr">
-        <is>
-          <t>test_933</t>
-        </is>
+    <row r="437" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A437" t="s">
+        <v>438</v>
       </c>
       <c r="B437">
         <v>0</v>
@@ -6042,11 +6702,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="438">
-      <c r="A438" t="inlineStr">
-        <is>
-          <t>test_934</t>
-        </is>
+    <row r="438" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A438" t="s">
+        <v>439</v>
       </c>
       <c r="B438">
         <v>19</v>
@@ -6055,11 +6713,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="439">
-      <c r="A439" t="inlineStr">
-        <is>
-          <t>test_935</t>
-        </is>
+    <row r="439" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A439" t="s">
+        <v>440</v>
       </c>
       <c r="B439">
         <v>0</v>
@@ -6068,11 +6724,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="440">
-      <c r="A440" t="inlineStr">
-        <is>
-          <t>test_936</t>
-        </is>
+    <row r="440" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A440" t="s">
+        <v>441</v>
       </c>
       <c r="B440">
         <v>0</v>
@@ -6081,11 +6735,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="441">
-      <c r="A441" t="inlineStr">
-        <is>
-          <t>test_937</t>
-        </is>
+    <row r="441" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A441" t="s">
+        <v>442</v>
       </c>
       <c r="B441">
         <v>0</v>
@@ -6094,11 +6746,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="442">
-      <c r="A442" t="inlineStr">
-        <is>
-          <t>test_938</t>
-        </is>
+    <row r="442" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A442" t="s">
+        <v>443</v>
       </c>
       <c r="B442">
         <v>0</v>
@@ -6107,11 +6757,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="443">
-      <c r="A443" t="inlineStr">
-        <is>
-          <t>test_939</t>
-        </is>
+    <row r="443" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A443" t="s">
+        <v>444</v>
       </c>
       <c r="B443">
         <v>0</v>
@@ -6120,11 +6768,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="444">
-      <c r="A444" t="inlineStr">
-        <is>
-          <t>test_940</t>
-        </is>
+    <row r="444" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A444" t="s">
+        <v>445</v>
       </c>
       <c r="B444">
         <v>20</v>
@@ -6133,11 +6779,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="445">
-      <c r="A445" t="inlineStr">
-        <is>
-          <t>test_941</t>
-        </is>
+    <row r="445" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A445" t="s">
+        <v>446</v>
       </c>
       <c r="B445">
         <v>0</v>
@@ -6146,11 +6790,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="446">
-      <c r="A446" t="inlineStr">
-        <is>
-          <t>test_942</t>
-        </is>
+    <row r="446" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A446" t="s">
+        <v>447</v>
       </c>
       <c r="B446">
         <v>20</v>
@@ -6159,11 +6801,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="447">
-      <c r="A447" t="inlineStr">
-        <is>
-          <t>test_943</t>
-        </is>
+    <row r="447" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A447" t="s">
+        <v>448</v>
       </c>
       <c r="B447">
         <v>0</v>
@@ -6172,11 +6812,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="448">
-      <c r="A448" t="inlineStr">
-        <is>
-          <t>test_944</t>
-        </is>
+    <row r="448" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A448" t="s">
+        <v>449</v>
       </c>
       <c r="B448">
         <v>0</v>
@@ -6185,11 +6823,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="449">
-      <c r="A449" t="inlineStr">
-        <is>
-          <t>test_945</t>
-        </is>
+    <row r="449" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A449" t="s">
+        <v>450</v>
       </c>
       <c r="B449">
         <v>0</v>
@@ -6198,11 +6834,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="450">
-      <c r="A450" t="inlineStr">
-        <is>
-          <t>test_946</t>
-        </is>
+    <row r="450" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A450" t="s">
+        <v>451</v>
       </c>
       <c r="B450">
         <v>0</v>
@@ -6211,11 +6845,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="451">
-      <c r="A451" t="inlineStr">
-        <is>
-          <t>test_947</t>
-        </is>
+    <row r="451" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A451" t="s">
+        <v>452</v>
       </c>
       <c r="B451">
         <v>0</v>
@@ -6224,11 +6856,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="452">
-      <c r="A452" t="inlineStr">
-        <is>
-          <t>test_948</t>
-        </is>
+    <row r="452" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A452" t="s">
+        <v>453</v>
       </c>
       <c r="B452">
         <v>0</v>
@@ -6237,11 +6867,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="453">
-      <c r="A453" t="inlineStr">
-        <is>
-          <t>test_949</t>
-        </is>
+    <row r="453" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A453" t="s">
+        <v>454</v>
       </c>
       <c r="B453">
         <v>0</v>
@@ -6250,11 +6878,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="454">
-      <c r="A454" t="inlineStr">
-        <is>
-          <t>test_950</t>
-        </is>
+    <row r="454" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A454" t="s">
+        <v>455</v>
       </c>
       <c r="B454">
         <v>0</v>
@@ -6263,11 +6889,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="455">
-      <c r="A455" t="inlineStr">
-        <is>
-          <t>test_951</t>
-        </is>
+    <row r="455" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A455" t="s">
+        <v>456</v>
       </c>
       <c r="B455">
         <v>0</v>
@@ -6276,11 +6900,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="456">
-      <c r="A456" t="inlineStr">
-        <is>
-          <t>test_952</t>
-        </is>
+    <row r="456" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A456" t="s">
+        <v>457</v>
       </c>
       <c r="B456">
         <v>20</v>
@@ -6289,11 +6911,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="457">
-      <c r="A457" t="inlineStr">
-        <is>
-          <t>test_953</t>
-        </is>
+    <row r="457" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A457" t="s">
+        <v>458</v>
       </c>
       <c r="B457">
         <v>0</v>
@@ -6302,11 +6922,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="458">
-      <c r="A458" t="inlineStr">
-        <is>
-          <t>test_954</t>
-        </is>
+    <row r="458" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A458" t="s">
+        <v>459</v>
       </c>
       <c r="B458">
         <v>20</v>
@@ -6315,11 +6933,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="459">
-      <c r="A459" t="inlineStr">
-        <is>
-          <t>test_955</t>
-        </is>
+    <row r="459" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A459" t="s">
+        <v>460</v>
       </c>
       <c r="B459">
         <v>0</v>
@@ -6328,11 +6944,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="460">
-      <c r="A460" t="inlineStr">
-        <is>
-          <t>test_956</t>
-        </is>
+    <row r="460" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A460" t="s">
+        <v>461</v>
       </c>
       <c r="B460">
         <v>20</v>
@@ -6341,11 +6955,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="461">
-      <c r="A461" t="inlineStr">
-        <is>
-          <t>test_957</t>
-        </is>
+    <row r="461" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A461" t="s">
+        <v>462</v>
       </c>
       <c r="B461">
         <v>0</v>
@@ -6354,11 +6966,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="462">
-      <c r="A462" t="inlineStr">
-        <is>
-          <t>test_958</t>
-        </is>
+    <row r="462" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A462" t="s">
+        <v>463</v>
       </c>
       <c r="B462">
         <v>0</v>
@@ -6367,11 +6977,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="463">
-      <c r="A463" t="inlineStr">
-        <is>
-          <t>test_959</t>
-        </is>
+    <row r="463" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A463" t="s">
+        <v>464</v>
       </c>
       <c r="B463">
         <v>0</v>
@@ -6380,11 +6988,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="464">
-      <c r="A464" t="inlineStr">
-        <is>
-          <t>test_960</t>
-        </is>
+    <row r="464" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A464" t="s">
+        <v>465</v>
       </c>
       <c r="B464">
         <v>0</v>
@@ -6393,11 +6999,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="465">
-      <c r="A465" t="inlineStr">
-        <is>
-          <t>test_961</t>
-        </is>
+    <row r="465" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A465" t="s">
+        <v>466</v>
       </c>
       <c r="B465">
         <v>0</v>
@@ -6406,11 +7010,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="466">
-      <c r="A466" t="inlineStr">
-        <is>
-          <t>test_962</t>
-        </is>
+    <row r="466" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A466" t="s">
+        <v>467</v>
       </c>
       <c r="B466">
         <v>20</v>
@@ -6419,11 +7021,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="467">
-      <c r="A467" t="inlineStr">
-        <is>
-          <t>test_963</t>
-        </is>
+    <row r="467" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A467" t="s">
+        <v>468</v>
       </c>
       <c r="B467">
         <v>0</v>
@@ -6432,11 +7032,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="468">
-      <c r="A468" t="inlineStr">
-        <is>
-          <t>test_964</t>
-        </is>
+    <row r="468" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A468" t="s">
+        <v>469</v>
       </c>
       <c r="B468">
         <v>20</v>
@@ -6445,11 +7043,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="469">
-      <c r="A469" t="inlineStr">
-        <is>
-          <t>test_965</t>
-        </is>
+    <row r="469" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A469" t="s">
+        <v>470</v>
       </c>
       <c r="B469">
         <v>0</v>
@@ -6458,11 +7054,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="470">
-      <c r="A470" t="inlineStr">
-        <is>
-          <t>test_966</t>
-        </is>
+    <row r="470" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A470" t="s">
+        <v>471</v>
       </c>
       <c r="B470">
         <v>1</v>
@@ -6471,11 +7065,9 @@
         <v>19</v>
       </c>
     </row>
-    <row r="471">
-      <c r="A471" t="inlineStr">
-        <is>
-          <t>test_967</t>
-        </is>
+    <row r="471" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A471" t="s">
+        <v>472</v>
       </c>
       <c r="B471">
         <v>0</v>
@@ -6484,11 +7076,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="472">
-      <c r="A472" t="inlineStr">
-        <is>
-          <t>test_968</t>
-        </is>
+    <row r="472" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A472" t="s">
+        <v>473</v>
       </c>
       <c r="B472">
         <v>20</v>
@@ -6497,11 +7087,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="473">
-      <c r="A473" t="inlineStr">
-        <is>
-          <t>test_969</t>
-        </is>
+    <row r="473" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A473" t="s">
+        <v>474</v>
       </c>
       <c r="B473">
         <v>0</v>
@@ -6510,11 +7098,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="474">
-      <c r="A474" t="inlineStr">
-        <is>
-          <t>test_970</t>
-        </is>
+    <row r="474" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A474" t="s">
+        <v>475</v>
       </c>
       <c r="B474">
         <v>0</v>
@@ -6523,11 +7109,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="475">
-      <c r="A475" t="inlineStr">
-        <is>
-          <t>test_971</t>
-        </is>
+    <row r="475" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A475" t="s">
+        <v>476</v>
       </c>
       <c r="B475">
         <v>0</v>
@@ -6536,11 +7120,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="476">
-      <c r="A476" t="inlineStr">
-        <is>
-          <t>test_972</t>
-        </is>
+    <row r="476" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A476" t="s">
+        <v>477</v>
       </c>
       <c r="B476">
         <v>20</v>
@@ -6549,11 +7131,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="477">
-      <c r="A477" t="inlineStr">
-        <is>
-          <t>test_973</t>
-        </is>
+    <row r="477" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A477" t="s">
+        <v>478</v>
       </c>
       <c r="B477">
         <v>0</v>
@@ -6562,11 +7142,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="478">
-      <c r="A478" t="inlineStr">
-        <is>
-          <t>test_974</t>
-        </is>
+    <row r="478" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A478" t="s">
+        <v>479</v>
       </c>
       <c r="B478">
         <v>0</v>
@@ -6575,11 +7153,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="479">
-      <c r="A479" t="inlineStr">
-        <is>
-          <t>test_975</t>
-        </is>
+    <row r="479" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A479" t="s">
+        <v>480</v>
       </c>
       <c r="B479">
         <v>0</v>
@@ -6588,11 +7164,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="480">
-      <c r="A480" t="inlineStr">
-        <is>
-          <t>test_976</t>
-        </is>
+    <row r="480" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A480" t="s">
+        <v>481</v>
       </c>
       <c r="B480">
         <v>0</v>
@@ -6601,11 +7175,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="481">
-      <c r="A481" t="inlineStr">
-        <is>
-          <t>test_977</t>
-        </is>
+    <row r="481" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A481" t="s">
+        <v>482</v>
       </c>
       <c r="B481">
         <v>0</v>
@@ -6614,11 +7186,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="482">
-      <c r="A482" t="inlineStr">
-        <is>
-          <t>test_978</t>
-        </is>
+    <row r="482" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A482" t="s">
+        <v>483</v>
       </c>
       <c r="B482">
         <v>20</v>
@@ -6627,11 +7197,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="483">
-      <c r="A483" t="inlineStr">
-        <is>
-          <t>test_979</t>
-        </is>
+    <row r="483" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A483" t="s">
+        <v>484</v>
       </c>
       <c r="B483">
         <v>0</v>
@@ -6640,11 +7208,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="484">
-      <c r="A484" t="inlineStr">
-        <is>
-          <t>test_980</t>
-        </is>
+    <row r="484" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A484" t="s">
+        <v>485</v>
       </c>
       <c r="B484">
         <v>2</v>
@@ -6653,11 +7219,9 @@
         <v>18</v>
       </c>
     </row>
-    <row r="485">
-      <c r="A485" t="inlineStr">
-        <is>
-          <t>test_981</t>
-        </is>
+    <row r="485" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A485" t="s">
+        <v>486</v>
       </c>
       <c r="B485">
         <v>0</v>
@@ -6666,11 +7230,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="486">
-      <c r="A486" t="inlineStr">
-        <is>
-          <t>test_982</t>
-        </is>
+    <row r="486" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A486" t="s">
+        <v>487</v>
       </c>
       <c r="B486">
         <v>0</v>
@@ -6679,11 +7241,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="487">
-      <c r="A487" t="inlineStr">
-        <is>
-          <t>test_983</t>
-        </is>
+    <row r="487" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A487" t="s">
+        <v>488</v>
       </c>
       <c r="B487">
         <v>0</v>
@@ -6692,11 +7252,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="488">
-      <c r="A488" t="inlineStr">
-        <is>
-          <t>test_984</t>
-        </is>
+    <row r="488" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A488" t="s">
+        <v>489</v>
       </c>
       <c r="B488">
         <v>0</v>
@@ -6705,11 +7263,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="489">
-      <c r="A489" t="inlineStr">
-        <is>
-          <t>test_985</t>
-        </is>
+    <row r="489" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A489" t="s">
+        <v>490</v>
       </c>
       <c r="B489">
         <v>0</v>
@@ -6718,11 +7274,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="490">
-      <c r="A490" t="inlineStr">
-        <is>
-          <t>test_986</t>
-        </is>
+    <row r="490" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A490" t="s">
+        <v>491</v>
       </c>
       <c r="B490">
         <v>20</v>
@@ -6731,11 +7285,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="491">
-      <c r="A491" t="inlineStr">
-        <is>
-          <t>test_987</t>
-        </is>
+    <row r="491" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A491" t="s">
+        <v>492</v>
       </c>
       <c r="B491">
         <v>0</v>
@@ -6744,11 +7296,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="492">
-      <c r="A492" t="inlineStr">
-        <is>
-          <t>test_988</t>
-        </is>
+    <row r="492" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A492" t="s">
+        <v>493</v>
       </c>
       <c r="B492">
         <v>0</v>
@@ -6757,11 +7307,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="493">
-      <c r="A493" t="inlineStr">
-        <is>
-          <t>test_989</t>
-        </is>
+    <row r="493" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A493" t="s">
+        <v>494</v>
       </c>
       <c r="B493">
         <v>0</v>
@@ -6770,11 +7318,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="494">
-      <c r="A494" t="inlineStr">
-        <is>
-          <t>test_990</t>
-        </is>
+    <row r="494" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A494" t="s">
+        <v>495</v>
       </c>
       <c r="B494">
         <v>3</v>
@@ -6783,11 +7329,9 @@
         <v>17</v>
       </c>
     </row>
-    <row r="495">
-      <c r="A495" t="inlineStr">
-        <is>
-          <t>test_991</t>
-        </is>
+    <row r="495" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A495" t="s">
+        <v>496</v>
       </c>
       <c r="B495">
         <v>0</v>
@@ -6796,11 +7340,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="496">
-      <c r="A496" t="inlineStr">
-        <is>
-          <t>test_992</t>
-        </is>
+    <row r="496" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A496" t="s">
+        <v>497</v>
       </c>
       <c r="B496">
         <v>20</v>
@@ -6809,11 +7351,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="497">
-      <c r="A497" t="inlineStr">
-        <is>
-          <t>test_993</t>
-        </is>
+    <row r="497" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A497" t="s">
+        <v>498</v>
       </c>
       <c r="B497">
         <v>0</v>
@@ -6822,11 +7362,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="498">
-      <c r="A498" t="inlineStr">
-        <is>
-          <t>test_994</t>
-        </is>
+    <row r="498" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A498" t="s">
+        <v>499</v>
       </c>
       <c r="B498">
         <v>20</v>
@@ -6835,11 +7373,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="499">
-      <c r="A499" t="inlineStr">
-        <is>
-          <t>test_995</t>
-        </is>
+    <row r="499" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A499" t="s">
+        <v>500</v>
       </c>
       <c r="B499">
         <v>0</v>
@@ -6848,11 +7384,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="500">
-      <c r="A500" t="inlineStr">
-        <is>
-          <t>test_996</t>
-        </is>
+    <row r="500" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A500" t="s">
+        <v>501</v>
       </c>
       <c r="B500">
         <v>0</v>
@@ -6861,11 +7395,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="501">
-      <c r="A501" t="inlineStr">
-        <is>
-          <t>test_997</t>
-        </is>
+    <row r="501" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A501" t="s">
+        <v>502</v>
       </c>
       <c r="B501">
         <v>0</v>
@@ -6874,11 +7406,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="502">
-      <c r="A502" t="inlineStr">
-        <is>
-          <t>test_998</t>
-        </is>
+    <row r="502" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A502" t="s">
+        <v>503</v>
       </c>
       <c r="B502">
         <v>20</v>
@@ -6887,11 +7417,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="503">
-      <c r="A503" t="inlineStr">
-        <is>
-          <t>test_999</t>
-        </is>
+    <row r="503" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A503" t="s">
+        <v>504</v>
       </c>
       <c r="B503">
         <v>0</v>
@@ -6900,7 +7428,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="504">
+    <row r="504" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B504">
         <v>0</v>
       </c>
